--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>573817.1214410677</v>
+        <v>569292.7128110669</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30165426.96050235</v>
+        <v>30165426.96050233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7431985.477503135</v>
+        <v>7431985.477503139</v>
       </c>
     </row>
     <row r="9">
@@ -1135,73 +1135,73 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.6530000821519227</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>0.7413715737419651</v>
       </c>
-      <c r="E8" t="n">
+      <c r="Y8" t="n">
         <v>0.7413715737419651</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.08258843891560583</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.5704116432363168</v>
       </c>
     </row>
     <row r="9">
@@ -1232,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6530000821519227</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7413715737419651</v>
+        <v>0.6530000821519226</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>398.3416766198384</v>
       </c>
       <c r="H11" t="n">
-        <v>203.3889281310186</v>
+        <v>212.3946215331023</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.79695632652503</v>
       </c>
       <c r="T11" t="n">
         <v>210.1627014039893</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1548,7 +1548,7 @@
         <v>134.5654687717742</v>
       </c>
       <c r="I13" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>7.157826386379085</v>
       </c>
       <c r="S13" t="n">
-        <v>87.3854469242806</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.16093036331</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>196.9942731314449</v>
       </c>
     </row>
     <row r="14">
@@ -1612,13 +1612,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>350.8979002504518</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.79695632652504</v>
+        <v>58.79695632652503</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>264.277453204331</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>74.04939089122112</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>72.41228859728429</v>
@@ -1824,13 +1824,13 @@
         <v>277.3347951985322</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>97.02644366567027</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>157.3124157460803</v>
       </c>
       <c r="U17" t="n">
-        <v>24.73439744120842</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>92.06775448085374</v>
       </c>
       <c r="H18" t="n">
-        <v>42.7452005362448</v>
+        <v>42.74520053624479</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,19 +2010,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H19" t="n">
-        <v>87.26823990853541</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.157826386379085</v>
+        <v>7.157826386379078</v>
       </c>
       <c r="S19" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.16093036331</v>
+        <v>229.1218367064401</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>214.7499360378879</v>
+        <v>390.0444402110015</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2177,7 +2177,7 @@
         <v>92.06775448085374</v>
       </c>
       <c r="H21" t="n">
-        <v>42.7452005362448</v>
+        <v>42.74520053624479</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7179050456562</v>
+        <v>118.9076834430461</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.157826386379085</v>
+        <v>7.157826386379078</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>77.1317390148226</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>316.2185600415738</v>
       </c>
       <c r="F23" t="n">
-        <v>149.8856899063566</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.79695632652503</v>
+        <v>58.79695632652502</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>63.55005467226545</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>58.32137789718637</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.157826386379078</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.1587802408334</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>310.9955006976951</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>331.2358724718127</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.79695632652503</v>
+        <v>58.79695632652502</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.157826386379078</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>153.1587802408334</v>
+        <v>151.2466520942234</v>
       </c>
       <c r="T28" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>63.55005467226633</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2797,16 +2797,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>370.0772019022687</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.79695632652503</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>93.66966733330673</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>155.3482397179835</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.157826386379078</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.1587802408334</v>
@@ -3006,10 +3006,10 @@
         <v>237.16093036331</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>93.75747835210112</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>272.4427332730312</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.79695632652503</v>
+        <v>58.79695632652502</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1627014039893</v>
+        <v>34.94718689250939</v>
       </c>
       <c r="U32" t="n">
         <v>255.6150406962232</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7179050456562</v>
+        <v>117.2356135348695</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.157826386379078</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>153.1587802408334</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>4.522259408492584</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3277,10 +3277,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>330.8692882235792</v>
       </c>
       <c r="G35" t="n">
-        <v>65.99312530326392</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.79695632652503</v>
+        <v>58.79695632652502</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.157826386379078</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.2563325914205</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3347951985322</v>
+        <v>52.0511416391404</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>349.3591839152578</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.79695632652503</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>91.12740183138558</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>28.42067934225493</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.157826386379078</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>153.1587802408334</v>
@@ -3717,7 +3717,7 @@
         <v>237.16093036331</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>123.0832715107467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>81.32153733236214</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>243.8441800953696</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.79695632652503</v>
+        <v>58.79695632652502</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U41" t="n">
         <v>255.6150406962232</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.7179050456562</v>
@@ -3918,7 +3918,7 @@
         <v>134.5654687717742</v>
       </c>
       <c r="I43" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.157826386379078</v>
+        <v>7.157826386379071</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1587802408334</v>
+        <v>93.00099097633139</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>134.6021790764362</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>290.5622275887332</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>342.8508184457671</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.79695632652503</v>
+        <v>58.79695632652501</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>61.09168024046795</v>
+        <v>61.09168024046794</v>
       </c>
       <c r="T45" t="n">
         <v>136.2471199530304</v>
@@ -4143,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>163.4001603320145</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.157826386379078</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>153.1587802408334</v>
@@ -4194,13 +4194,13 @@
         <v>277.3347951985322</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>188.2093939309002</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.640452742464545</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="C8" t="n">
-        <v>1.640452742464545</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8915925669676106</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1427323914706762</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1427323914706762</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="G8" t="n">
         <v>0.05930972589935721</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05930972589935721</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7932675839039026</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="K8" t="n">
         <v>1.527225441908448</v>
@@ -4828,13 +4828,13 @@
         <v>2.261183299912993</v>
       </c>
       <c r="R8" t="n">
-        <v>2.261183299912993</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="S8" t="n">
-        <v>2.261183299912993</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="T8" t="n">
-        <v>2.261183299912993</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="U8" t="n">
         <v>2.96548629496786</v>
@@ -4846,10 +4846,10 @@
         <v>2.96548629496786</v>
       </c>
       <c r="X8" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.38931291796148</v>
+        <v>1.467765943973991</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="D9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="E9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="F9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="G9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="H9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05930972589935721</v>
+        <v>1.557030076893226</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="K9" t="n">
         <v>0.05930972589935721</v>
@@ -4904,31 +4904,31 @@
         <v>2.96548629496786</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.216626119470926</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="R9" t="n">
-        <v>1.467765943973991</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="S9" t="n">
-        <v>1.467765943973991</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="T9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="U9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="V9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="W9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="X9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.718905768477057</v>
+        <v>2.305890252390161</v>
       </c>
     </row>
     <row r="10">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1075.707724112028</v>
+        <v>658.8274442619904</v>
       </c>
       <c r="C11" t="n">
-        <v>1075.707724112028</v>
+        <v>658.8274442619904</v>
       </c>
       <c r="D11" t="n">
-        <v>1075.707724112028</v>
+        <v>658.8274442619904</v>
       </c>
       <c r="E11" t="n">
-        <v>649.7307842598856</v>
+        <v>658.8274442619904</v>
       </c>
       <c r="F11" t="n">
-        <v>649.7307842598856</v>
+        <v>658.8274442619904</v>
       </c>
       <c r="G11" t="n">
-        <v>247.3654543408568</v>
+        <v>256.4621143429617</v>
       </c>
       <c r="H11" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="I11" t="n">
-        <v>82.2977537478547</v>
+        <v>82.29775374785459</v>
       </c>
       <c r="J11" t="n">
         <v>217.3564621562498</v>
       </c>
       <c r="K11" t="n">
-        <v>428.0194649169802</v>
+        <v>428.0194649169803</v>
       </c>
       <c r="L11" t="n">
-        <v>695.3620842405355</v>
+        <v>695.3620842405358</v>
       </c>
       <c r="M11" t="n">
-        <v>997.9785432306628</v>
+        <v>997.9785432306629</v>
       </c>
       <c r="N11" t="n">
         <v>1306.241396764578</v>
@@ -5059,34 +5059,34 @@
         <v>1595.158288098558</v>
       </c>
       <c r="P11" t="n">
-        <v>1836.135757884009</v>
+        <v>1836.13575788401</v>
       </c>
       <c r="Q11" t="n">
-        <v>2009.271730617951</v>
+        <v>2009.271730617952</v>
       </c>
       <c r="R11" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="S11" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="T11" t="n">
-        <v>1883.819072643934</v>
+        <v>1824.428207667647</v>
       </c>
       <c r="U11" t="n">
-        <v>1883.819072643934</v>
+        <v>1824.428207667647</v>
       </c>
       <c r="V11" t="n">
-        <v>1883.819072643934</v>
+        <v>1466.938792793896</v>
       </c>
       <c r="W11" t="n">
-        <v>1487.427722944281</v>
+        <v>1070.547443094243</v>
       </c>
       <c r="X11" t="n">
-        <v>1075.707724112028</v>
+        <v>658.8274442619904</v>
       </c>
       <c r="Y11" t="n">
-        <v>1075.707724112028</v>
+        <v>658.8274442619904</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G12" t="n">
-        <v>85.09906283098432</v>
+        <v>85.09906283098434</v>
       </c>
       <c r="H12" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="I12" t="n">
-        <v>61.54715157330345</v>
+        <v>61.54715157330348</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7270672914883</v>
+        <v>138.9292929260528</v>
       </c>
       <c r="K12" t="n">
-        <v>575.6856311272714</v>
+        <v>283.8878567618359</v>
       </c>
       <c r="L12" t="n">
-        <v>778.1277221400701</v>
+        <v>486.3299477746345</v>
       </c>
       <c r="M12" t="n">
-        <v>1017.513584853441</v>
+        <v>725.7158104880057</v>
       </c>
       <c r="N12" t="n">
-        <v>1265.576683836778</v>
+        <v>973.7789094713428</v>
       </c>
       <c r="O12" t="n">
-        <v>1488.89523962663</v>
+        <v>1197.097465261194</v>
       </c>
       <c r="P12" t="n">
-        <v>1664.98644549511</v>
+        <v>1373.188671129675</v>
       </c>
       <c r="Q12" t="n">
         <v>1774.586883845564</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.3498504461803</v>
+        <v>851.2061245903376</v>
       </c>
       <c r="C13" t="n">
-        <v>752.3772873250963</v>
+        <v>679.2335614692536</v>
       </c>
       <c r="D13" t="n">
-        <v>589.060514451867</v>
+        <v>515.9167885960243</v>
       </c>
       <c r="E13" t="n">
-        <v>422.8523086047205</v>
+        <v>349.7085827488779</v>
       </c>
       <c r="F13" t="n">
-        <v>250.990534379281</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="G13" t="n">
-        <v>250.990534379281</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="H13" t="n">
-        <v>115.0658184481959</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="I13" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="J13" t="n">
-        <v>82.84021611732985</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K13" t="n">
-        <v>410.1822679736395</v>
+        <v>488.1039846218604</v>
       </c>
       <c r="L13" t="n">
-        <v>893.8793769001281</v>
+        <v>796.90302497587</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.665272730499</v>
+        <v>910.5739633147621</v>
       </c>
       <c r="N13" t="n">
-        <v>1524.910218182448</v>
+        <v>1022.818908766712</v>
       </c>
       <c r="O13" t="n">
-        <v>1965.026432567754</v>
+        <v>1500.896730616549</v>
       </c>
       <c r="P13" t="n">
-        <v>2047.817440812583</v>
+        <v>1896.443943434685</v>
       </c>
       <c r="Q13" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R13" t="n">
-        <v>2088.874501954651</v>
+        <v>2088.874501954652</v>
       </c>
       <c r="S13" t="n">
-        <v>2000.606373748307</v>
+        <v>2088.874501954652</v>
       </c>
       <c r="T13" t="n">
-        <v>1761.049878431832</v>
+        <v>1849.318006638177</v>
       </c>
       <c r="U13" t="n">
-        <v>1480.913721665638</v>
+        <v>1849.318006638177</v>
       </c>
       <c r="V13" t="n">
-        <v>1199.202254273667</v>
+        <v>1567.606539246206</v>
       </c>
       <c r="W13" t="n">
-        <v>924.3498504461803</v>
+        <v>1292.754135418719</v>
       </c>
       <c r="X13" t="n">
-        <v>924.3498504461803</v>
+        <v>1050.190238864524</v>
       </c>
       <c r="Y13" t="n">
-        <v>924.3498504461803</v>
+        <v>851.2061245903376</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>893.9470043896529</v>
+        <v>823.265146064358</v>
       </c>
       <c r="C14" t="n">
-        <v>467.046274402953</v>
+        <v>396.3644160776581</v>
       </c>
       <c r="D14" t="n">
-        <v>467.046274402953</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="E14" t="n">
-        <v>467.046274402953</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="F14" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="G14" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="H14" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="I14" t="n">
         <v>82.29775374785459</v>
       </c>
       <c r="J14" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562497</v>
       </c>
       <c r="K14" t="n">
         <v>428.0194649169802</v>
@@ -5287,19 +5287,19 @@
         <v>695.3620842405355</v>
       </c>
       <c r="M14" t="n">
-        <v>997.9785432306628</v>
+        <v>997.9785432306627</v>
       </c>
       <c r="N14" t="n">
         <v>1306.241396764578</v>
       </c>
       <c r="O14" t="n">
-        <v>1595.158288098558</v>
+        <v>1595.158288098559</v>
       </c>
       <c r="P14" t="n">
-        <v>1836.135757884009</v>
+        <v>1836.13575788401</v>
       </c>
       <c r="Q14" t="n">
-        <v>2009.271730617951</v>
+        <v>2009.271730617952</v>
       </c>
       <c r="R14" t="n">
         <v>2096.104629617661</v>
@@ -5308,22 +5308,22 @@
         <v>2036.713764641373</v>
       </c>
       <c r="T14" t="n">
-        <v>1824.428207667646</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="U14" t="n">
-        <v>1566.23119686338</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V14" t="n">
-        <v>1566.23119686338</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W14" t="n">
-        <v>1299.284274434763</v>
+        <v>1640.32241494172</v>
       </c>
       <c r="X14" t="n">
-        <v>1299.284274434763</v>
+        <v>1228.602416109468</v>
       </c>
       <c r="Y14" t="n">
-        <v>893.9470043896529</v>
+        <v>823.265146064358</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G15" t="n">
-        <v>85.09906283098432</v>
+        <v>85.09906283098434</v>
       </c>
       <c r="H15" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="I15" t="n">
-        <v>61.54715157330345</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J15" t="n">
-        <v>138.9292929260527</v>
+        <v>162.3865987704646</v>
       </c>
       <c r="K15" t="n">
-        <v>283.8878567618358</v>
+        <v>307.3451626062478</v>
       </c>
       <c r="L15" t="n">
-        <v>486.3299477746344</v>
+        <v>509.7872536190464</v>
       </c>
       <c r="M15" t="n">
-        <v>725.7158104880056</v>
+        <v>749.1731163324175</v>
       </c>
       <c r="N15" t="n">
-        <v>973.7789094713428</v>
+        <v>997.2362153157546</v>
       </c>
       <c r="O15" t="n">
-        <v>1488.89523962663</v>
+        <v>1220.554771105606</v>
       </c>
       <c r="P15" t="n">
-        <v>1664.98644549511</v>
+        <v>1396.645976974087</v>
       </c>
       <c r="Q15" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R15" t="n">
         <v>1815.413022142049</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>663.857878988454</v>
+        <v>625.1083616418661</v>
       </c>
       <c r="C16" t="n">
-        <v>663.857878988454</v>
+        <v>453.135798520782</v>
       </c>
       <c r="D16" t="n">
-        <v>589.060514451867</v>
+        <v>453.135798520782</v>
       </c>
       <c r="E16" t="n">
-        <v>422.8523086047205</v>
+        <v>286.9275926736356</v>
       </c>
       <c r="F16" t="n">
-        <v>250.990534379281</v>
+        <v>115.065818448196</v>
       </c>
       <c r="G16" t="n">
-        <v>250.990534379281</v>
+        <v>115.065818448196</v>
       </c>
       <c r="H16" t="n">
-        <v>115.0658184481959</v>
+        <v>115.065818448196</v>
       </c>
       <c r="I16" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="J16" t="n">
         <v>160.7619327655507</v>
       </c>
       <c r="K16" t="n">
-        <v>240.8213755078383</v>
+        <v>488.1039846218604</v>
       </c>
       <c r="L16" t="n">
-        <v>724.518484434327</v>
+        <v>971.8010935483491</v>
       </c>
       <c r="M16" t="n">
-        <v>1243.304380264698</v>
+        <v>1288.276287617965</v>
       </c>
       <c r="N16" t="n">
-        <v>1355.549325716647</v>
+        <v>1400.521233069915</v>
       </c>
       <c r="O16" t="n">
-        <v>1833.627147566485</v>
+        <v>1500.896730616549</v>
       </c>
       <c r="P16" t="n">
-        <v>2047.817440812583</v>
+        <v>1896.443943434685</v>
       </c>
       <c r="Q16" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R16" t="n">
-        <v>2088.874501954651</v>
+        <v>2088.874501954652</v>
       </c>
       <c r="S16" t="n">
-        <v>1934.168663327547</v>
+        <v>1934.168663327548</v>
       </c>
       <c r="T16" t="n">
-        <v>1694.612168011072</v>
+        <v>1694.612168011073</v>
       </c>
       <c r="U16" t="n">
-        <v>1414.476011244878</v>
+        <v>1414.476011244879</v>
       </c>
       <c r="V16" t="n">
-        <v>1132.764543852907</v>
+        <v>1316.469502491677</v>
       </c>
       <c r="W16" t="n">
-        <v>1132.764543852907</v>
+        <v>1041.61709866419</v>
       </c>
       <c r="X16" t="n">
-        <v>890.2006472987119</v>
+        <v>1041.61709866419</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.857878988454</v>
+        <v>815.2743303539316</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1317.239625204653</v>
+        <v>1167.993785865112</v>
       </c>
       <c r="C17" t="n">
-        <v>890.3388952179528</v>
+        <v>1167.993785865112</v>
       </c>
       <c r="D17" t="n">
-        <v>467.046274402953</v>
+        <v>744.7011650501122</v>
       </c>
       <c r="E17" t="n">
-        <v>467.046274402953</v>
+        <v>744.7011650501122</v>
       </c>
       <c r="F17" t="n">
-        <v>41.92209259235321</v>
+        <v>319.5769832395124</v>
       </c>
       <c r="G17" t="n">
-        <v>41.92209259235321</v>
+        <v>319.5769832395124</v>
       </c>
       <c r="H17" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I17" t="n">
         <v>82.29775374785413</v>
       </c>
       <c r="J17" t="n">
-        <v>217.3564621562491</v>
+        <v>217.3564621562493</v>
       </c>
       <c r="K17" t="n">
-        <v>428.0194649169797</v>
+        <v>428.01946491698</v>
       </c>
       <c r="L17" t="n">
-        <v>695.3620842405351</v>
+        <v>695.3620842405355</v>
       </c>
       <c r="M17" t="n">
-        <v>997.9785432306624</v>
+        <v>997.9785432306627</v>
       </c>
       <c r="N17" t="n">
         <v>1306.241396764578</v>
@@ -5533,10 +5533,10 @@
         <v>1595.158288098558</v>
       </c>
       <c r="P17" t="n">
-        <v>1836.135757884009</v>
+        <v>1836.13575788401</v>
       </c>
       <c r="Q17" t="n">
-        <v>2009.271730617951</v>
+        <v>2009.271730617952</v>
       </c>
       <c r="R17" t="n">
         <v>2096.104629617661</v>
@@ -5545,22 +5545,22 @@
         <v>2096.104629617661</v>
       </c>
       <c r="T17" t="n">
-        <v>2096.104629617661</v>
+        <v>1937.203199571115</v>
       </c>
       <c r="U17" t="n">
-        <v>2071.120389778056</v>
+        <v>1937.203199571115</v>
       </c>
       <c r="V17" t="n">
-        <v>1713.630974904306</v>
+        <v>1579.713784697365</v>
       </c>
       <c r="W17" t="n">
-        <v>1317.239625204653</v>
+        <v>1579.713784697365</v>
       </c>
       <c r="X17" t="n">
-        <v>1317.239625204653</v>
+        <v>1167.993785865112</v>
       </c>
       <c r="Y17" t="n">
-        <v>1317.239625204653</v>
+        <v>1167.993785865112</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G18" t="n">
-        <v>85.09906283098432</v>
+        <v>85.09906283098434</v>
       </c>
       <c r="H18" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I18" t="n">
-        <v>73.94489282173929</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J18" t="n">
-        <v>151.3270341744885</v>
+        <v>325.2715670065822</v>
       </c>
       <c r="K18" t="n">
-        <v>296.2855980102717</v>
+        <v>470.2301308423654</v>
       </c>
       <c r="L18" t="n">
-        <v>498.7276890230703</v>
+        <v>672.672221855164</v>
       </c>
       <c r="M18" t="n">
-        <v>1017.513584853441</v>
+        <v>912.0580845685353</v>
       </c>
       <c r="N18" t="n">
-        <v>1265.576683836778</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O18" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R18" t="n">
         <v>1815.413022142049</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.5693717151619</v>
+        <v>923.5132658572725</v>
       </c>
       <c r="C19" t="n">
-        <v>459.5968085940779</v>
+        <v>751.5407027361885</v>
       </c>
       <c r="D19" t="n">
-        <v>296.2800357208486</v>
+        <v>588.2239298629592</v>
       </c>
       <c r="E19" t="n">
-        <v>130.0718298737021</v>
+        <v>588.2239298629592</v>
       </c>
       <c r="F19" t="n">
-        <v>130.0718298737021</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0718298737021</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H19" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I19" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="J19" t="n">
         <v>160.7619327655507</v>
       </c>
       <c r="K19" t="n">
-        <v>240.8213755078383</v>
+        <v>488.1039846218604</v>
       </c>
       <c r="L19" t="n">
-        <v>398.8701021339889</v>
+        <v>971.8010935483492</v>
       </c>
       <c r="M19" t="n">
-        <v>512.5410404728809</v>
+        <v>1085.472031887241</v>
       </c>
       <c r="N19" t="n">
-        <v>1022.818908766711</v>
+        <v>1197.716977339191</v>
       </c>
       <c r="O19" t="n">
         <v>1500.896730616548</v>
@@ -5697,28 +5697,28 @@
         <v>2096.104629617661</v>
       </c>
       <c r="R19" t="n">
-        <v>2088.874501954651</v>
+        <v>2088.874501954652</v>
       </c>
       <c r="S19" t="n">
-        <v>1934.168663327547</v>
+        <v>2088.874501954652</v>
       </c>
       <c r="T19" t="n">
-        <v>1694.612168011072</v>
+        <v>1857.438303261278</v>
       </c>
       <c r="U19" t="n">
-        <v>1414.476011244878</v>
+        <v>1857.438303261278</v>
       </c>
       <c r="V19" t="n">
-        <v>1132.764543852907</v>
+        <v>1857.438303261278</v>
       </c>
       <c r="W19" t="n">
-        <v>857.9121400254198</v>
+        <v>1582.585899433791</v>
       </c>
       <c r="X19" t="n">
-        <v>857.9121400254198</v>
+        <v>1340.022002879596</v>
       </c>
       <c r="Y19" t="n">
-        <v>631.5693717151619</v>
+        <v>1113.679234569338</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>258.8412199033511</v>
+        <v>859.1989964487686</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8412199033511</v>
+        <v>859.1989964487686</v>
       </c>
       <c r="D20" t="n">
-        <v>258.8412199033511</v>
+        <v>435.9063756337689</v>
       </c>
       <c r="E20" t="n">
-        <v>258.8412199033511</v>
+        <v>435.9063756337689</v>
       </c>
       <c r="F20" t="n">
-        <v>258.8412199033511</v>
+        <v>435.9063756337689</v>
       </c>
       <c r="G20" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="H20" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I20" t="n">
-        <v>82.2977537478547</v>
+        <v>82.29775374785459</v>
       </c>
       <c r="J20" t="n">
-        <v>217.3564621562498</v>
+        <v>217.3564621562496</v>
       </c>
       <c r="K20" t="n">
-        <v>428.0194649169802</v>
+        <v>428.01946491698</v>
       </c>
       <c r="L20" t="n">
         <v>695.3620842405355</v>
       </c>
       <c r="M20" t="n">
-        <v>997.9785432306628</v>
+        <v>997.9785432306631</v>
       </c>
       <c r="N20" t="n">
         <v>1306.241396764578</v>
@@ -5770,10 +5770,10 @@
         <v>1595.158288098558</v>
       </c>
       <c r="P20" t="n">
-        <v>1836.135757884009</v>
+        <v>1836.13575788401</v>
       </c>
       <c r="Q20" t="n">
-        <v>2009.271730617951</v>
+        <v>2009.271730617952</v>
       </c>
       <c r="R20" t="n">
         <v>2096.104629617661</v>
@@ -5785,19 +5785,19 @@
         <v>2096.104629617661</v>
       </c>
       <c r="U20" t="n">
-        <v>1837.907618813394</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V20" t="n">
-        <v>1480.418203939644</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="W20" t="n">
-        <v>1084.026854239991</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="X20" t="n">
-        <v>1084.026854239991</v>
+        <v>1684.384630785408</v>
       </c>
       <c r="Y20" t="n">
-        <v>678.6895841948811</v>
+        <v>1279.047360740299</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G21" t="n">
-        <v>85.09906283098432</v>
+        <v>85.09906283098434</v>
       </c>
       <c r="H21" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I21" t="n">
-        <v>61.54715157330345</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J21" t="n">
-        <v>138.9292929260527</v>
+        <v>162.3865987704646</v>
       </c>
       <c r="K21" t="n">
-        <v>283.8878567618358</v>
+        <v>307.3451626062478</v>
       </c>
       <c r="L21" t="n">
-        <v>672.6722218551643</v>
+        <v>509.7872536190464</v>
       </c>
       <c r="M21" t="n">
-        <v>912.0580845685354</v>
+        <v>749.1731163324175</v>
       </c>
       <c r="N21" t="n">
-        <v>1160.121183551872</v>
+        <v>997.2362153157547</v>
       </c>
       <c r="O21" t="n">
-        <v>1383.439739341724</v>
+        <v>1220.554771105607</v>
       </c>
       <c r="P21" t="n">
-        <v>1559.530945210204</v>
+        <v>1396.645976974087</v>
       </c>
       <c r="Q21" t="n">
-        <v>1669.131383560658</v>
+        <v>1774.586883845564</v>
       </c>
       <c r="R21" t="n">
         <v>1815.413022142049</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>515.1909929027609</v>
+        <v>908.5339056696873</v>
       </c>
       <c r="C22" t="n">
-        <v>343.2184297816768</v>
+        <v>736.5613425486033</v>
       </c>
       <c r="D22" t="n">
-        <v>343.2184297816768</v>
+        <v>573.244569675374</v>
       </c>
       <c r="E22" t="n">
-        <v>343.2184297816768</v>
+        <v>407.0363638282275</v>
       </c>
       <c r="F22" t="n">
-        <v>343.2184297816768</v>
+        <v>235.174589602788</v>
       </c>
       <c r="G22" t="n">
-        <v>177.8468085234383</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="H22" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I22" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="J22" t="n">
-        <v>82.84021611732985</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K22" t="n">
-        <v>410.1822679736395</v>
+        <v>488.1039846218604</v>
       </c>
       <c r="L22" t="n">
-        <v>517.4904833089631</v>
+        <v>971.8010935483492</v>
       </c>
       <c r="M22" t="n">
-        <v>890.2433647760843</v>
+        <v>1085.472031887241</v>
       </c>
       <c r="N22" t="n">
-        <v>1400.521233069914</v>
+        <v>1197.716977339191</v>
       </c>
       <c r="O22" t="n">
-        <v>1500.896730616548</v>
+        <v>1652.270227994447</v>
       </c>
       <c r="P22" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812584</v>
       </c>
       <c r="Q22" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R22" t="n">
-        <v>2088.874501954651</v>
+        <v>2088.874501954652</v>
       </c>
       <c r="S22" t="n">
-        <v>2088.874501954651</v>
+        <v>2088.874501954652</v>
       </c>
       <c r="T22" t="n">
-        <v>2010.963654464932</v>
+        <v>1849.318006638177</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.827497698737</v>
+        <v>1849.318006638177</v>
       </c>
       <c r="V22" t="n">
-        <v>1449.116030306766</v>
+        <v>1567.606539246206</v>
       </c>
       <c r="W22" t="n">
-        <v>1174.263626479279</v>
+        <v>1567.606539246206</v>
       </c>
       <c r="X22" t="n">
-        <v>931.6997299250845</v>
+        <v>1325.042642692011</v>
       </c>
       <c r="Y22" t="n">
-        <v>705.3569616148266</v>
+        <v>1098.699874381753</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>619.2987192185932</v>
+        <v>1211.528130304733</v>
       </c>
       <c r="C23" t="n">
-        <v>619.2987192185932</v>
+        <v>784.6274003180336</v>
       </c>
       <c r="D23" t="n">
-        <v>619.2987192185932</v>
+        <v>361.3347795030338</v>
       </c>
       <c r="E23" t="n">
-        <v>193.3217793664508</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="F23" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="G23" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="H23" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I23" t="n">
-        <v>82.29775374785447</v>
+        <v>82.29775374785459</v>
       </c>
       <c r="J23" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562497</v>
       </c>
       <c r="K23" t="n">
-        <v>428.0194649169801</v>
+        <v>428.0194649169803</v>
       </c>
       <c r="L23" t="n">
-        <v>695.3620842405355</v>
+        <v>695.3620842405358</v>
       </c>
       <c r="M23" t="n">
-        <v>997.9785432306622</v>
+        <v>997.9785432306626</v>
       </c>
       <c r="N23" t="n">
         <v>1306.241396764578</v>
@@ -6007,10 +6007,10 @@
         <v>1595.158288098558</v>
       </c>
       <c r="P23" t="n">
-        <v>1836.135757884009</v>
+        <v>1836.13575788401</v>
       </c>
       <c r="Q23" t="n">
-        <v>2009.271730617951</v>
+        <v>2009.271730617952</v>
       </c>
       <c r="R23" t="n">
         <v>2096.104629617661</v>
@@ -6022,19 +6022,19 @@
         <v>2036.713764641373</v>
       </c>
       <c r="U23" t="n">
-        <v>1778.516753837107</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V23" t="n">
-        <v>1421.027338963356</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W23" t="n">
-        <v>1024.635989263703</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="X23" t="n">
-        <v>1024.635989263703</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="Y23" t="n">
-        <v>619.2987192185932</v>
+        <v>1631.376494596263</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G24" t="n">
-        <v>85.09906283098431</v>
+        <v>85.09906283098434</v>
       </c>
       <c r="H24" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I24" t="n">
-        <v>61.54715157330345</v>
+        <v>61.54715157330348</v>
       </c>
       <c r="J24" t="n">
-        <v>138.9292929260527</v>
+        <v>430.727067291488</v>
       </c>
       <c r="K24" t="n">
-        <v>283.8878567618359</v>
+        <v>575.6856311272711</v>
       </c>
       <c r="L24" t="n">
-        <v>486.3299477746345</v>
+        <v>778.1277221400699</v>
       </c>
       <c r="M24" t="n">
-        <v>725.7158104880057</v>
+        <v>1017.513584853441</v>
       </c>
       <c r="N24" t="n">
-        <v>1244.501706318377</v>
+        <v>1265.576683836778</v>
       </c>
       <c r="O24" t="n">
-        <v>1467.820262108228</v>
+        <v>1488.89523962663</v>
       </c>
       <c r="P24" t="n">
-        <v>1643.911467976709</v>
+        <v>1664.98644549511</v>
       </c>
       <c r="Q24" t="n">
         <v>1774.586883845564</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.4034030030962</v>
+        <v>432.4124024221689</v>
       </c>
       <c r="C25" t="n">
-        <v>269.4308398820123</v>
+        <v>432.4124024221689</v>
       </c>
       <c r="D25" t="n">
-        <v>106.114067008783</v>
+        <v>432.4124024221689</v>
       </c>
       <c r="E25" t="n">
-        <v>106.114067008783</v>
+        <v>266.2041965750225</v>
       </c>
       <c r="F25" t="n">
-        <v>106.114067008783</v>
+        <v>266.2041965750225</v>
       </c>
       <c r="G25" t="n">
-        <v>41.92209259235321</v>
+        <v>100.8325753167839</v>
       </c>
       <c r="H25" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I25" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="J25" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732987</v>
       </c>
       <c r="K25" t="n">
-        <v>415.5227509882886</v>
+        <v>162.8996588596175</v>
       </c>
       <c r="L25" t="n">
-        <v>522.8309663236123</v>
+        <v>646.5967677861063</v>
       </c>
       <c r="M25" t="n">
-        <v>1041.616862153983</v>
+        <v>1165.382663616477</v>
       </c>
       <c r="N25" t="n">
-        <v>1551.894730447813</v>
+        <v>1675.660531910307</v>
       </c>
       <c r="O25" t="n">
-        <v>1652.270227994447</v>
+        <v>1965.026432567755</v>
       </c>
       <c r="P25" t="n">
-        <v>2047.817440812583</v>
+        <v>2047.817440812584</v>
       </c>
       <c r="Q25" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R25" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S25" t="n">
-        <v>1934.168663327547</v>
+        <v>1941.398790990557</v>
       </c>
       <c r="T25" t="n">
-        <v>1694.612168011072</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="U25" t="n">
-        <v>1414.476011244878</v>
+        <v>1421.706138907888</v>
       </c>
       <c r="V25" t="n">
-        <v>1132.764543852907</v>
+        <v>1139.994671515916</v>
       </c>
       <c r="W25" t="n">
-        <v>857.9121400254198</v>
+        <v>865.1422676884295</v>
       </c>
       <c r="X25" t="n">
-        <v>857.9121400254198</v>
+        <v>622.5783711342345</v>
       </c>
       <c r="Y25" t="n">
-        <v>631.5693717151619</v>
+        <v>622.5783711342345</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>803.4045119445206</v>
+        <v>1317.239625204653</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5037819578206</v>
+        <v>890.3388952179528</v>
       </c>
       <c r="D26" t="n">
-        <v>41.92209259235323</v>
+        <v>467.046274402953</v>
       </c>
       <c r="E26" t="n">
-        <v>41.92209259235323</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F26" t="n">
         <v>41.92209259235323</v>
@@ -6226,16 +6226,16 @@
         <v>82.29775374785459</v>
       </c>
       <c r="J26" t="n">
-        <v>217.3564621562498</v>
+        <v>217.3564621562497</v>
       </c>
       <c r="K26" t="n">
-        <v>428.0194649169805</v>
+        <v>428.0194649169803</v>
       </c>
       <c r="L26" t="n">
-        <v>695.362084240536</v>
+        <v>695.3620842405358</v>
       </c>
       <c r="M26" t="n">
-        <v>997.9785432306631</v>
+        <v>997.978543230663</v>
       </c>
       <c r="N26" t="n">
         <v>1306.241396764578</v>
@@ -6256,22 +6256,22 @@
         <v>2036.713764641373</v>
       </c>
       <c r="T26" t="n">
-        <v>1824.428207667647</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="U26" t="n">
-        <v>1566.231196863381</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V26" t="n">
-        <v>1208.74178198963</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W26" t="n">
-        <v>1208.74178198963</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="X26" t="n">
-        <v>1208.74178198963</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="Y26" t="n">
-        <v>803.4045119445206</v>
+        <v>1631.376494596264</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>85.00445741771532</v>
       </c>
       <c r="J27" t="n">
-        <v>325.2715670065822</v>
+        <v>430.727067291488</v>
       </c>
       <c r="K27" t="n">
-        <v>470.2301308423654</v>
+        <v>575.6856311272711</v>
       </c>
       <c r="L27" t="n">
-        <v>672.672221855164</v>
+        <v>778.1277221400699</v>
       </c>
       <c r="M27" t="n">
-        <v>912.0580845685353</v>
+        <v>1017.513584853441</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.121183551872</v>
+        <v>1265.576683836778</v>
       </c>
       <c r="O27" t="n">
-        <v>1383.439739341724</v>
+        <v>1488.89523962663</v>
       </c>
       <c r="P27" t="n">
-        <v>1559.530945210204</v>
+        <v>1664.98644549511</v>
       </c>
       <c r="Q27" t="n">
-        <v>1669.131383560658</v>
+        <v>1774.586883845564</v>
       </c>
       <c r="R27" t="n">
         <v>1815.413022142049</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.2114285866666</v>
+        <v>917.8596974789793</v>
       </c>
       <c r="C28" t="n">
-        <v>205.2388654655825</v>
+        <v>745.8871343578953</v>
       </c>
       <c r="D28" t="n">
-        <v>41.92209259235323</v>
+        <v>582.570361484666</v>
       </c>
       <c r="E28" t="n">
-        <v>41.92209259235323</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="F28" t="n">
-        <v>41.92209259235323</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="G28" t="n">
-        <v>41.92209259235323</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H28" t="n">
-        <v>41.92209259235323</v>
+        <v>115.065818448196</v>
       </c>
       <c r="I28" t="n">
         <v>41.92209259235323</v>
       </c>
       <c r="J28" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732989</v>
       </c>
       <c r="K28" t="n">
-        <v>291.561886798666</v>
+        <v>313.2059160493813</v>
       </c>
       <c r="L28" t="n">
-        <v>398.8701021339897</v>
+        <v>796.90302497587</v>
       </c>
       <c r="M28" t="n">
-        <v>512.5410404728818</v>
+        <v>910.5739633147621</v>
       </c>
       <c r="N28" t="n">
         <v>1022.818908766712</v>
@@ -6408,28 +6408,28 @@
         <v>2096.104629617661</v>
       </c>
       <c r="R28" t="n">
-        <v>2088.874501954652</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S28" t="n">
-        <v>1934.168663327548</v>
+        <v>1943.33023356289</v>
       </c>
       <c r="T28" t="n">
-        <v>1694.612168011073</v>
+        <v>1943.33023356289</v>
       </c>
       <c r="U28" t="n">
-        <v>1414.476011244879</v>
+        <v>1943.33023356289</v>
       </c>
       <c r="V28" t="n">
-        <v>1132.764543852908</v>
+        <v>1661.618766170919</v>
       </c>
       <c r="W28" t="n">
-        <v>857.9121400254207</v>
+        <v>1386.766362343432</v>
       </c>
       <c r="X28" t="n">
-        <v>793.7201656089901</v>
+        <v>1144.202465789237</v>
       </c>
       <c r="Y28" t="n">
-        <v>567.3773972987321</v>
+        <v>917.8596974789793</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1318.092383246195</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="C29" t="n">
-        <v>891.1916532594954</v>
+        <v>1669.203899630961</v>
       </c>
       <c r="D29" t="n">
-        <v>467.8990324444957</v>
+        <v>1295.388544174124</v>
       </c>
       <c r="E29" t="n">
-        <v>41.92209259235323</v>
+        <v>869.4116043219817</v>
       </c>
       <c r="F29" t="n">
-        <v>41.92209259235323</v>
+        <v>444.287422511382</v>
       </c>
       <c r="G29" t="n">
-        <v>41.92209259235323</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="H29" t="n">
-        <v>41.92209259235323</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I29" t="n">
-        <v>82.29775374785447</v>
+        <v>82.29775374785459</v>
       </c>
       <c r="J29" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562497</v>
       </c>
       <c r="K29" t="n">
-        <v>428.0194649169801</v>
+        <v>428.0194649169803</v>
       </c>
       <c r="L29" t="n">
         <v>695.3620842405355</v>
       </c>
       <c r="M29" t="n">
-        <v>997.9785432306627</v>
+        <v>997.9785432306626</v>
       </c>
       <c r="N29" t="n">
         <v>1306.241396764578</v>
       </c>
       <c r="O29" t="n">
-        <v>1595.158288098559</v>
+        <v>1595.158288098558</v>
       </c>
       <c r="P29" t="n">
         <v>1836.13575788401</v>
@@ -6490,25 +6490,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S29" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T29" t="n">
-        <v>1824.428207667647</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U29" t="n">
-        <v>1824.428207667647</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V29" t="n">
-        <v>1729.812382078448</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="W29" t="n">
-        <v>1729.812382078448</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="X29" t="n">
-        <v>1318.092383246195</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="Y29" t="n">
-        <v>1318.092383246195</v>
+        <v>2096.104629617661</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>85.09906283098434</v>
       </c>
       <c r="H30" t="n">
-        <v>41.92209259235323</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I30" t="n">
-        <v>61.54715157330348</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J30" t="n">
-        <v>138.9292929260528</v>
+        <v>325.2715670065819</v>
       </c>
       <c r="K30" t="n">
-        <v>283.8878567618359</v>
+        <v>470.2301308423651</v>
       </c>
       <c r="L30" t="n">
-        <v>486.3299477746345</v>
+        <v>672.6722218551638</v>
       </c>
       <c r="M30" t="n">
-        <v>725.7158104880057</v>
+        <v>912.0580845685349</v>
       </c>
       <c r="N30" t="n">
-        <v>973.7789094713429</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O30" t="n">
-        <v>1197.097465261194</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P30" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R30" t="n">
         <v>1815.413022142049</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.8395064489022</v>
+        <v>1089.721471704419</v>
       </c>
       <c r="C31" t="n">
-        <v>41.92209259235323</v>
+        <v>917.7489085833349</v>
       </c>
       <c r="D31" t="n">
-        <v>41.92209259235323</v>
+        <v>754.4321357101056</v>
       </c>
       <c r="E31" t="n">
-        <v>41.92209259235323</v>
+        <v>588.2239298629592</v>
       </c>
       <c r="F31" t="n">
-        <v>41.92209259235323</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="G31" t="n">
-        <v>41.92209259235323</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H31" t="n">
-        <v>41.92209259235323</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I31" t="n">
-        <v>41.92209259235323</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="J31" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732987</v>
       </c>
       <c r="K31" t="n">
-        <v>240.8213755078384</v>
+        <v>162.8996588596175</v>
       </c>
       <c r="L31" t="n">
-        <v>348.1295908431621</v>
+        <v>457.884846593717</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9154866735332</v>
+        <v>976.6707424240881</v>
       </c>
       <c r="N31" t="n">
-        <v>1377.193354967363</v>
+        <v>1486.948610717918</v>
       </c>
       <c r="O31" t="n">
-        <v>1500.896730616549</v>
+        <v>1965.026432567755</v>
       </c>
       <c r="P31" t="n">
-        <v>1896.443943434685</v>
+        <v>2047.817440812584</v>
       </c>
       <c r="Q31" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.874501954652</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S31" t="n">
-        <v>1934.168663327548</v>
+        <v>1941.398790990557</v>
       </c>
       <c r="T31" t="n">
-        <v>1694.612168011073</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="U31" t="n">
-        <v>1414.476011244879</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="V31" t="n">
-        <v>1132.764543852908</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="W31" t="n">
-        <v>857.9121400254207</v>
+        <v>1426.989891846595</v>
       </c>
       <c r="X31" t="n">
-        <v>615.3482434712258</v>
+        <v>1184.4259952924</v>
       </c>
       <c r="Y31" t="n">
-        <v>389.0054751609679</v>
+        <v>1089.721471704419</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1146.382832571851</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="C32" t="n">
-        <v>719.4821025851509</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D32" t="n">
-        <v>719.4821025851509</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E32" t="n">
-        <v>719.4821025851509</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F32" t="n">
-        <v>719.4821025851509</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1167726661221</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="H32" t="n">
         <v>41.92209259235323</v>
@@ -6700,22 +6700,22 @@
         <v>82.29775374785459</v>
       </c>
       <c r="J32" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562498</v>
       </c>
       <c r="K32" t="n">
-        <v>428.01946491698</v>
+        <v>428.0194649169803</v>
       </c>
       <c r="L32" t="n">
-        <v>695.3620842405355</v>
+        <v>695.3620842405359</v>
       </c>
       <c r="M32" t="n">
-        <v>997.9785432306631</v>
+        <v>997.978543230663</v>
       </c>
       <c r="N32" t="n">
         <v>1306.241396764578</v>
       </c>
       <c r="O32" t="n">
-        <v>1595.158288098558</v>
+        <v>1595.158288098559</v>
       </c>
       <c r="P32" t="n">
         <v>1836.13575788401</v>
@@ -6730,22 +6730,22 @@
         <v>2036.713764641373</v>
       </c>
       <c r="T32" t="n">
-        <v>1824.428207667647</v>
+        <v>2001.413575861061</v>
       </c>
       <c r="U32" t="n">
-        <v>1566.231196863381</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="V32" t="n">
-        <v>1566.231196863381</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="W32" t="n">
-        <v>1566.231196863381</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="X32" t="n">
-        <v>1566.231196863381</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="Y32" t="n">
-        <v>1566.231196863381</v>
+        <v>1743.216565056795</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>41.92209259235323</v>
       </c>
       <c r="I33" t="n">
-        <v>61.54715157330348</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J33" t="n">
-        <v>138.9292929260528</v>
+        <v>325.2715670065819</v>
       </c>
       <c r="K33" t="n">
-        <v>283.8878567618359</v>
+        <v>470.2301308423651</v>
       </c>
       <c r="L33" t="n">
-        <v>486.3299477746345</v>
+        <v>672.6722218551638</v>
       </c>
       <c r="M33" t="n">
-        <v>725.7158104880057</v>
+        <v>912.0580845685349</v>
       </c>
       <c r="N33" t="n">
-        <v>973.7789094713429</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O33" t="n">
-        <v>1197.097465261194</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P33" t="n">
         <v>1559.530945210204</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>708.6804667964071</v>
+        <v>1042.769662097564</v>
       </c>
       <c r="C34" t="n">
-        <v>708.6804667964071</v>
+        <v>870.7970989764797</v>
       </c>
       <c r="D34" t="n">
-        <v>545.3636939231778</v>
+        <v>707.4803261032504</v>
       </c>
       <c r="E34" t="n">
-        <v>379.1554880760314</v>
+        <v>541.2721202561039</v>
       </c>
       <c r="F34" t="n">
-        <v>207.2937138505918</v>
+        <v>369.4103460306643</v>
       </c>
       <c r="G34" t="n">
-        <v>41.92209259235323</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H34" t="n">
-        <v>41.92209259235323</v>
+        <v>115.065818448196</v>
       </c>
       <c r="I34" t="n">
         <v>41.92209259235323</v>
@@ -6864,46 +6864,46 @@
         <v>240.8213755078384</v>
       </c>
       <c r="L34" t="n">
-        <v>398.8701021339897</v>
+        <v>348.1295908431621</v>
       </c>
       <c r="M34" t="n">
-        <v>512.5410404728818</v>
+        <v>866.9154866735332</v>
       </c>
       <c r="N34" t="n">
-        <v>1022.818908766712</v>
+        <v>1377.193354967363</v>
       </c>
       <c r="O34" t="n">
-        <v>1500.896730616549</v>
+        <v>1855.2711768172</v>
       </c>
       <c r="P34" t="n">
-        <v>1896.443943434685</v>
+        <v>1938.062185062029</v>
       </c>
       <c r="Q34" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.874501954652</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S34" t="n">
-        <v>1934.168663327548</v>
+        <v>1941.398790990557</v>
       </c>
       <c r="T34" t="n">
-        <v>1934.168663327548</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="U34" t="n">
-        <v>1654.032506561354</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="V34" t="n">
-        <v>1372.321039169383</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="W34" t="n">
-        <v>1367.753100372925</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="X34" t="n">
-        <v>1125.189203818731</v>
+        <v>1459.278399119887</v>
       </c>
       <c r="Y34" t="n">
-        <v>898.8464355084727</v>
+        <v>1232.935630809629</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>961.4594849597451</v>
+        <v>1631.376494596264</v>
       </c>
       <c r="C35" t="n">
-        <v>534.5587549730451</v>
+        <v>1204.475764609564</v>
       </c>
       <c r="D35" t="n">
-        <v>534.5587549730451</v>
+        <v>1204.475764609564</v>
       </c>
       <c r="E35" t="n">
-        <v>108.5818151209027</v>
+        <v>778.4988247574216</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5818151209027</v>
+        <v>444.287422511382</v>
       </c>
       <c r="G35" t="n">
         <v>41.92209259235323</v>
@@ -6934,19 +6934,19 @@
         <v>41.92209259235323</v>
       </c>
       <c r="I35" t="n">
-        <v>82.29775374785447</v>
+        <v>82.29775374785436</v>
       </c>
       <c r="J35" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562493</v>
       </c>
       <c r="K35" t="n">
-        <v>428.0194649169801</v>
+        <v>428.01946491698</v>
       </c>
       <c r="L35" t="n">
         <v>695.3620842405355</v>
       </c>
       <c r="M35" t="n">
-        <v>997.9785432306627</v>
+        <v>997.9785432306628</v>
       </c>
       <c r="N35" t="n">
         <v>1306.241396764578</v>
@@ -6970,19 +6970,19 @@
         <v>2036.713764641373</v>
       </c>
       <c r="U35" t="n">
-        <v>1778.516753837107</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V35" t="n">
-        <v>1778.516753837107</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W35" t="n">
-        <v>1778.516753837107</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="X35" t="n">
-        <v>1366.796755004855</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="Y35" t="n">
-        <v>961.4594849597451</v>
+        <v>1631.376494596264</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>41.92209259235323</v>
       </c>
       <c r="I36" t="n">
-        <v>61.54715157330348</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J36" t="n">
-        <v>138.9292929260528</v>
+        <v>325.2715670065819</v>
       </c>
       <c r="K36" t="n">
-        <v>283.8878567618359</v>
+        <v>470.2301308423651</v>
       </c>
       <c r="L36" t="n">
-        <v>486.3299477746345</v>
+        <v>672.6722218551638</v>
       </c>
       <c r="M36" t="n">
-        <v>725.7158104880057</v>
+        <v>912.0580845685349</v>
       </c>
       <c r="N36" t="n">
-        <v>973.7789094713429</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O36" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R36" t="n">
         <v>1815.413022142049</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.8946557134372</v>
+        <v>588.3347187586036</v>
       </c>
       <c r="C37" t="n">
-        <v>41.92209259235323</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="D37" t="n">
-        <v>41.92209259235323</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="E37" t="n">
-        <v>41.92209259235323</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="F37" t="n">
-        <v>41.92209259235323</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="G37" t="n">
-        <v>41.92209259235323</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H37" t="n">
-        <v>41.92209259235323</v>
+        <v>115.065818448196</v>
       </c>
       <c r="I37" t="n">
         <v>41.92209259235323</v>
       </c>
       <c r="J37" t="n">
-        <v>82.84021611732989</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K37" t="n">
-        <v>162.8996588596175</v>
+        <v>240.8213755078384</v>
       </c>
       <c r="L37" t="n">
-        <v>270.2078741949413</v>
+        <v>348.1295908431621</v>
       </c>
       <c r="M37" t="n">
-        <v>512.5410404728818</v>
+        <v>866.9154866735332</v>
       </c>
       <c r="N37" t="n">
-        <v>1022.818908766712</v>
+        <v>1377.193354967363</v>
       </c>
       <c r="O37" t="n">
-        <v>1500.896730616549</v>
+        <v>1855.2711768172</v>
       </c>
       <c r="P37" t="n">
-        <v>1896.443943434685</v>
+        <v>1938.062185062029</v>
       </c>
       <c r="Q37" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R37" t="n">
-        <v>2088.874501954652</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S37" t="n">
-        <v>1934.168663327548</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T37" t="n">
-        <v>1709.667317275608</v>
+        <v>1856.548134301187</v>
       </c>
       <c r="U37" t="n">
-        <v>1429.531160509414</v>
+        <v>1803.97122355458</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.819693117443</v>
+        <v>1522.259756162609</v>
       </c>
       <c r="W37" t="n">
-        <v>872.9672892899557</v>
+        <v>1247.407352335122</v>
       </c>
       <c r="X37" t="n">
-        <v>630.4033927357608</v>
+        <v>1004.843455780927</v>
       </c>
       <c r="Y37" t="n">
-        <v>404.0606244255029</v>
+        <v>778.5006874706692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>869.4116043219817</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="C38" t="n">
-        <v>869.4116043219817</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D38" t="n">
-        <v>869.4116043219817</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E38" t="n">
-        <v>869.4116043219817</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F38" t="n">
-        <v>444.287422511382</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="G38" t="n">
         <v>41.92209259235323</v>
@@ -7171,19 +7171,19 @@
         <v>41.92209259235323</v>
       </c>
       <c r="I38" t="n">
-        <v>82.29775374785447</v>
+        <v>82.29775374785436</v>
       </c>
       <c r="J38" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562493</v>
       </c>
       <c r="K38" t="n">
-        <v>428.0194649169801</v>
+        <v>428.01946491698</v>
       </c>
       <c r="L38" t="n">
         <v>695.3620842405355</v>
       </c>
       <c r="M38" t="n">
-        <v>997.9785432306627</v>
+        <v>997.9785432306628</v>
       </c>
       <c r="N38" t="n">
         <v>1306.241396764578</v>
@@ -7201,25 +7201,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S38" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T38" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U38" t="n">
-        <v>1778.516753837107</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V38" t="n">
-        <v>1778.516753837107</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="W38" t="n">
-        <v>1686.468873199344</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="X38" t="n">
-        <v>1274.748874367092</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="Y38" t="n">
-        <v>869.4116043219817</v>
+        <v>2096.104629617661</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>41.92209259235323</v>
       </c>
       <c r="I39" t="n">
-        <v>61.54715157330348</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J39" t="n">
-        <v>138.9292929260528</v>
+        <v>325.2715670065819</v>
       </c>
       <c r="K39" t="n">
-        <v>283.8878567618359</v>
+        <v>470.2301308423651</v>
       </c>
       <c r="L39" t="n">
-        <v>486.3299477746345</v>
+        <v>672.6722218551638</v>
       </c>
       <c r="M39" t="n">
-        <v>725.7158104880057</v>
+        <v>912.0580845685349</v>
       </c>
       <c r="N39" t="n">
-        <v>973.7789094713429</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O39" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P39" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R39" t="n">
         <v>1815.413022142049</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.419634433813</v>
+        <v>955.1124557425583</v>
       </c>
       <c r="C40" t="n">
-        <v>371.447071312729</v>
+        <v>783.1398926214742</v>
       </c>
       <c r="D40" t="n">
-        <v>208.1302984394997</v>
+        <v>754.4321357101056</v>
       </c>
       <c r="E40" t="n">
-        <v>41.92209259235323</v>
+        <v>588.2239298629592</v>
       </c>
       <c r="F40" t="n">
-        <v>41.92209259235323</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="G40" t="n">
-        <v>41.92209259235323</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H40" t="n">
-        <v>41.92209259235323</v>
+        <v>115.065818448196</v>
       </c>
       <c r="I40" t="n">
         <v>41.92209259235323</v>
@@ -7338,46 +7338,46 @@
         <v>410.1822679736396</v>
       </c>
       <c r="L40" t="n">
-        <v>517.4904833089632</v>
+        <v>893.8793769001284</v>
       </c>
       <c r="M40" t="n">
-        <v>631.1614216478554</v>
+        <v>1007.55031523902</v>
       </c>
       <c r="N40" t="n">
-        <v>1141.439289941685</v>
+        <v>1119.79526069097</v>
       </c>
       <c r="O40" t="n">
-        <v>1619.517111791522</v>
+        <v>1500.896730616549</v>
       </c>
       <c r="P40" t="n">
-        <v>2015.064324609658</v>
+        <v>1896.443943434685</v>
       </c>
       <c r="Q40" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R40" t="n">
-        <v>2088.874501954652</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S40" t="n">
-        <v>1934.168663327548</v>
+        <v>1941.398790990557</v>
       </c>
       <c r="T40" t="n">
-        <v>1694.612168011073</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="U40" t="n">
-        <v>1414.476011244879</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="V40" t="n">
-        <v>1132.764543852908</v>
+        <v>1420.130828282111</v>
       </c>
       <c r="W40" t="n">
-        <v>857.9121400254207</v>
+        <v>1145.278424454624</v>
       </c>
       <c r="X40" t="n">
-        <v>733.5856031458786</v>
+        <v>1145.278424454624</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.5856031458786</v>
+        <v>1145.278424454624</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>953.3311195004678</v>
+        <v>1566.231196863381</v>
       </c>
       <c r="C41" t="n">
-        <v>526.430389513768</v>
+        <v>1139.330466876681</v>
       </c>
       <c r="D41" t="n">
-        <v>444.287422511382</v>
+        <v>1139.330466876681</v>
       </c>
       <c r="E41" t="n">
-        <v>444.287422511382</v>
+        <v>713.3535270245385</v>
       </c>
       <c r="F41" t="n">
-        <v>444.287422511382</v>
+        <v>288.2293452139387</v>
       </c>
       <c r="G41" t="n">
-        <v>41.92209259235323</v>
+        <v>288.2293452139387</v>
       </c>
       <c r="H41" t="n">
         <v>41.92209259235323</v>
       </c>
       <c r="I41" t="n">
-        <v>82.29775374785456</v>
+        <v>82.29775374785459</v>
       </c>
       <c r="J41" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562497</v>
       </c>
       <c r="K41" t="n">
-        <v>428.0194649169802</v>
+        <v>428.0194649169803</v>
       </c>
       <c r="L41" t="n">
-        <v>695.3620842405356</v>
+        <v>695.3620842405358</v>
       </c>
       <c r="M41" t="n">
-        <v>997.9785432306629</v>
+        <v>997.978543230663</v>
       </c>
       <c r="N41" t="n">
         <v>1306.241396764578</v>
       </c>
       <c r="O41" t="n">
-        <v>1595.158288098558</v>
+        <v>1595.158288098559</v>
       </c>
       <c r="P41" t="n">
         <v>1836.13575788401</v>
@@ -7441,22 +7441,22 @@
         <v>2036.713764641373</v>
       </c>
       <c r="T41" t="n">
-        <v>2036.713764641373</v>
+        <v>1824.428207667647</v>
       </c>
       <c r="U41" t="n">
-        <v>1778.516753837107</v>
+        <v>1566.231196863381</v>
       </c>
       <c r="V41" t="n">
-        <v>1778.516753837107</v>
+        <v>1566.231196863381</v>
       </c>
       <c r="W41" t="n">
-        <v>1778.516753837107</v>
+        <v>1566.231196863381</v>
       </c>
       <c r="X41" t="n">
-        <v>1778.516753837107</v>
+        <v>1566.231196863381</v>
       </c>
       <c r="Y41" t="n">
-        <v>1373.179483791998</v>
+        <v>1566.231196863381</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>878.4820281168076</v>
+        <v>597.7904206411953</v>
       </c>
       <c r="C42" t="n">
-        <v>760.9761246343123</v>
+        <v>480.2845171587001</v>
       </c>
       <c r="D42" t="n">
-        <v>657.1361661495973</v>
+        <v>376.4445586739851</v>
       </c>
       <c r="E42" t="n">
-        <v>552.4342324225346</v>
+        <v>271.7426249469223</v>
       </c>
       <c r="F42" t="n">
-        <v>458.7884021054388</v>
+        <v>178.0967946298265</v>
       </c>
       <c r="G42" t="n">
-        <v>365.7906703065966</v>
+        <v>85.09906283098434</v>
       </c>
       <c r="H42" t="n">
-        <v>322.6137000679655</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="I42" t="n">
-        <v>342.2387590489158</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J42" t="n">
-        <v>419.620900401665</v>
+        <v>325.2715670065819</v>
       </c>
       <c r="K42" t="n">
-        <v>564.5794642374482</v>
+        <v>470.2301308423651</v>
       </c>
       <c r="L42" t="n">
-        <v>767.0215552502468</v>
+        <v>672.6722218551638</v>
       </c>
       <c r="M42" t="n">
-        <v>1006.407417963618</v>
+        <v>912.0580845685349</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.470516946955</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O42" t="n">
-        <v>1477.789072736807</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P42" t="n">
-        <v>1653.880278605287</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q42" t="n">
-        <v>2055.278491321176</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R42" t="n">
-        <v>2096.104629617661</v>
+        <v>1815.413022142049</v>
       </c>
       <c r="S42" t="n">
-        <v>2034.395861697997</v>
+        <v>1753.704254222385</v>
       </c>
       <c r="T42" t="n">
-        <v>1896.772508210087</v>
+        <v>1616.080900734475</v>
       </c>
       <c r="U42" t="n">
-        <v>1712.073788444432</v>
+        <v>1431.382180968819</v>
       </c>
       <c r="V42" t="n">
-        <v>1507.100649583698</v>
+        <v>1226.409042108085</v>
       </c>
       <c r="W42" t="n">
-        <v>1310.579272416915</v>
+        <v>1029.887664941303</v>
       </c>
       <c r="X42" t="n">
-        <v>1147.101926183578</v>
+        <v>866.4103187079656</v>
       </c>
       <c r="Y42" t="n">
-        <v>1007.40903753687</v>
+        <v>726.717430061258</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.570361484666</v>
+        <v>1016.577745848576</v>
       </c>
       <c r="C43" t="n">
-        <v>582.570361484666</v>
+        <v>844.6051827274922</v>
       </c>
       <c r="D43" t="n">
-        <v>582.570361484666</v>
+        <v>681.2884098542629</v>
       </c>
       <c r="E43" t="n">
-        <v>416.3621556375195</v>
+        <v>515.0802040071164</v>
       </c>
       <c r="F43" t="n">
-        <v>416.3621556375195</v>
+        <v>343.2184297816768</v>
       </c>
       <c r="G43" t="n">
-        <v>250.990534379281</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="H43" t="n">
-        <v>115.065818448196</v>
+        <v>41.92209259235323</v>
       </c>
       <c r="I43" t="n">
         <v>41.92209259235323</v>
@@ -7572,22 +7572,22 @@
         <v>82.84021611732989</v>
       </c>
       <c r="K43" t="n">
-        <v>264.1492536103901</v>
+        <v>410.1822679736396</v>
       </c>
       <c r="L43" t="n">
-        <v>371.4574689457138</v>
+        <v>522.830966323613</v>
       </c>
       <c r="M43" t="n">
-        <v>890.2433647760849</v>
+        <v>1041.616862153984</v>
       </c>
       <c r="N43" t="n">
-        <v>1400.521233069915</v>
+        <v>1551.894730447814</v>
       </c>
       <c r="O43" t="n">
-        <v>1500.896730616549</v>
+        <v>1652.270227994448</v>
       </c>
       <c r="P43" t="n">
-        <v>1896.443943434685</v>
+        <v>2047.817440812584</v>
       </c>
       <c r="Q43" t="n">
         <v>2096.104629617661</v>
@@ -7596,25 +7596,25 @@
         <v>2088.874501954652</v>
       </c>
       <c r="S43" t="n">
-        <v>1934.168663327548</v>
+        <v>1994.934107029065</v>
       </c>
       <c r="T43" t="n">
-        <v>1934.168663327548</v>
+        <v>1994.934107029065</v>
       </c>
       <c r="U43" t="n">
-        <v>1798.206866280643</v>
+        <v>1714.797950262871</v>
       </c>
       <c r="V43" t="n">
-        <v>1516.495398888671</v>
+        <v>1433.0864828709</v>
       </c>
       <c r="W43" t="n">
-        <v>1241.642995061184</v>
+        <v>1433.0864828709</v>
       </c>
       <c r="X43" t="n">
-        <v>999.0790985069896</v>
+        <v>1433.0864828709</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.7363301967316</v>
+        <v>1206.743714560642</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.1367806050805</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="C44" t="n">
-        <v>388.2360506183806</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D44" t="n">
-        <v>388.2360506183806</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E44" t="n">
-        <v>388.2360506183806</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F44" t="n">
-        <v>41.92209259235323</v>
+        <v>41.92209259235324</v>
       </c>
       <c r="G44" t="n">
-        <v>41.92209259235323</v>
+        <v>41.92209259235324</v>
       </c>
       <c r="H44" t="n">
-        <v>41.92209259235323</v>
+        <v>41.92209259235324</v>
       </c>
       <c r="I44" t="n">
-        <v>82.29775374785501</v>
+        <v>82.2977537478547</v>
       </c>
       <c r="J44" t="n">
-        <v>217.3564621562501</v>
+        <v>217.3564621562498</v>
       </c>
       <c r="K44" t="n">
-        <v>428.0194649169806</v>
+        <v>428.0194649169804</v>
       </c>
       <c r="L44" t="n">
-        <v>695.3620842405361</v>
+        <v>695.362084240536</v>
       </c>
       <c r="M44" t="n">
-        <v>997.9785432306634</v>
+        <v>997.9785432306635</v>
       </c>
       <c r="N44" t="n">
         <v>1306.241396764579</v>
@@ -7669,31 +7669,31 @@
         <v>1836.13575788401</v>
       </c>
       <c r="Q44" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617953</v>
       </c>
       <c r="R44" t="n">
-        <v>2096.104629617661</v>
+        <v>2096.104629617662</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.713764641373</v>
+        <v>2036.713764641374</v>
       </c>
       <c r="T44" t="n">
-        <v>2036.713764641373</v>
+        <v>2036.713764641374</v>
       </c>
       <c r="U44" t="n">
-        <v>2036.713764641373</v>
+        <v>2036.713764641374</v>
       </c>
       <c r="V44" t="n">
-        <v>2036.713764641373</v>
+        <v>2036.713764641374</v>
       </c>
       <c r="W44" t="n">
-        <v>1640.32241494172</v>
+        <v>2036.713764641374</v>
       </c>
       <c r="X44" t="n">
-        <v>1640.32241494172</v>
+        <v>2036.713764641374</v>
       </c>
       <c r="Y44" t="n">
-        <v>1234.985144896611</v>
+        <v>2036.713764641374</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>85.09906283098434</v>
       </c>
       <c r="H45" t="n">
-        <v>41.92209259235323</v>
+        <v>41.92209259235324</v>
       </c>
       <c r="I45" t="n">
-        <v>61.54715157330348</v>
+        <v>85.00445741771534</v>
       </c>
       <c r="J45" t="n">
-        <v>138.9292929260528</v>
+        <v>325.2715670065817</v>
       </c>
       <c r="K45" t="n">
-        <v>283.8878567618359</v>
+        <v>470.2301308423649</v>
       </c>
       <c r="L45" t="n">
-        <v>486.3299477746345</v>
+        <v>672.6722218551637</v>
       </c>
       <c r="M45" t="n">
-        <v>725.7158104880057</v>
+        <v>912.0580845685349</v>
       </c>
       <c r="N45" t="n">
-        <v>973.7789094713429</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O45" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P45" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R45" t="n">
         <v>1815.413022142049</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.4880762207408</v>
+        <v>714.123869814141</v>
       </c>
       <c r="C46" t="n">
-        <v>580.5155130996568</v>
+        <v>542.151306693057</v>
       </c>
       <c r="D46" t="n">
-        <v>417.1987402264274</v>
+        <v>378.8345338198277</v>
       </c>
       <c r="E46" t="n">
-        <v>250.990534379281</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="F46" t="n">
-        <v>250.990534379281</v>
+        <v>41.92209259235324</v>
       </c>
       <c r="G46" t="n">
-        <v>250.990534379281</v>
+        <v>41.92209259235324</v>
       </c>
       <c r="H46" t="n">
-        <v>115.065818448196</v>
+        <v>41.92209259235324</v>
       </c>
       <c r="I46" t="n">
-        <v>41.92209259235323</v>
+        <v>41.92209259235324</v>
       </c>
       <c r="J46" t="n">
-        <v>137.2373615709708</v>
+        <v>119.1436911382071</v>
       </c>
       <c r="K46" t="n">
-        <v>464.5794134272805</v>
+        <v>199.2031338804948</v>
       </c>
       <c r="L46" t="n">
-        <v>948.2765223537692</v>
+        <v>306.5113492158185</v>
       </c>
       <c r="M46" t="n">
-        <v>1061.947460692661</v>
+        <v>825.2972450461898</v>
       </c>
       <c r="N46" t="n">
-        <v>1174.192406144611</v>
+        <v>1335.575113340019</v>
       </c>
       <c r="O46" t="n">
-        <v>1652.270227994448</v>
+        <v>1813.652935189857</v>
       </c>
       <c r="P46" t="n">
-        <v>2047.817440812584</v>
+        <v>1896.443943434685</v>
       </c>
       <c r="Q46" t="n">
-        <v>2096.104629617661</v>
+        <v>2096.104629617662</v>
       </c>
       <c r="R46" t="n">
-        <v>2088.874501954652</v>
+        <v>2096.104629617662</v>
       </c>
       <c r="S46" t="n">
-        <v>1934.168663327548</v>
+        <v>1941.398790990557</v>
       </c>
       <c r="T46" t="n">
-        <v>1694.612168011073</v>
+        <v>1701.842295674083</v>
       </c>
       <c r="U46" t="n">
-        <v>1414.476011244879</v>
+        <v>1421.706138907889</v>
       </c>
       <c r="V46" t="n">
-        <v>1132.764543852908</v>
+        <v>1421.706138907889</v>
       </c>
       <c r="W46" t="n">
-        <v>942.6540449328065</v>
+        <v>1146.853735080402</v>
       </c>
       <c r="X46" t="n">
-        <v>942.6540449328065</v>
+        <v>904.2898385262066</v>
       </c>
       <c r="Y46" t="n">
-        <v>942.6540449328065</v>
+        <v>904.2898385262066</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>294.7452266317532</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>203.5260858774605</v>
       </c>
       <c r="M13" t="n">
-        <v>409.2070277691706</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>343.1724412511839</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>294.7452266317531</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>409.2070277691706</v>
+        <v>204.8527835663882</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>132.7265505063332</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>12.522970958016</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>164.5302709455734</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>282.2222556737373</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,19 +9324,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>51.25304170790594</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>204.8527835663875</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>188.2245192732625</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>271.0509783040642</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>261.6989324527567</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>357.7553061703261</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>294.7452266317527</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>273.4573705525594</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.28785607919372</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>176.4660358388386</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>409.2070277691706</v>
+        <v>409.2070277691707</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>190.8993970816304</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>164.5302709455734</v>
+        <v>271.050978304064</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>51.2530417079067</v>
+        <v>151.8245022118826</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>164.530270945573</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>294.745226631753</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>189.5726993927028</v>
       </c>
       <c r="M31" t="n">
-        <v>409.2070277691708</v>
+        <v>409.2070277691707</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>23.56351323490084</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>164.530270945573</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.2245192732622</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>51.2530417079067</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>409.2070277691708</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10524,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>110.8638946975305</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>164.530270945573</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>294.7452266317529</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>129.9618464030793</v>
+        <v>409.2070277691708</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>110.8638946975305</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>164.530270945573</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>294.7452266317529</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>283.5615882615605</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>33.0839557605309</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>164.530270945573</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>294.7452266317526</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>102.2723179300733</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.39442728752492</v>
       </c>
       <c r="M43" t="n">
         <v>409.2070277691708</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>164.5302709455727</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>294.7452266317529</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>54.94661156933429</v>
+        <v>36.67017678876483</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>409.207027769171</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23023,19 +23023,19 @@
         <v>14.90850907487276</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>21.97872260468094</v>
       </c>
       <c r="D8" t="n">
-        <v>18.31832303310772</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>20.97579887987904</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.08258843891560583</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>6.861427270188237</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7134857014222388</v>
+        <v>0.5425257709165905</v>
       </c>
     </row>
     <row r="9">
@@ -23266,7 +23266,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>71.48941360966899</v>
+        <v>62.48372020758524</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.79695632652504</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>255.6150406962232</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>65.77333331655278</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>27.08506749571043</v>
       </c>
     </row>
     <row r="14">
@@ -23500,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>68.16179435639793</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>398.3416766198384</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>128.1499829983255</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>87.63421425327587</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>163.7179050456562</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>181.8679090523811</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>398.3416766198384</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8783417406876</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.79695632652504</v>
+        <v>58.79695632652503</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1627014039893</v>
+        <v>52.85028565790901</v>
       </c>
       <c r="U17" t="n">
-        <v>230.8806432550148</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.29722886323879</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>8.039093656869937</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23983,7 +23983,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>183.5917405819505</v>
+        <v>8.297236408836966</v>
       </c>
       <c r="H20" t="n">
         <v>274.8783417406876</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.79695632652504</v>
+        <v>58.79695632652503</v>
       </c>
       <c r="T20" t="n">
         <v>210.1627014039893</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.81022160261008</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I22" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>153.1587802408334</v>
       </c>
       <c r="T22" t="n">
-        <v>160.0291913484874</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>105.4986104120472</v>
       </c>
       <c r="F23" t="n">
-        <v>270.9872500861372</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.3416766198384</v>
@@ -24262,13 +24262,13 @@
         <v>210.1627014039893</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>100.1678503733907</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5654687717742</v>
+        <v>76.24409087458783</v>
       </c>
       <c r="I25" t="n">
         <v>72.41228859728429</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.157826386379071</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>104.6543799509196</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>87.82382213503695</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.3416766198384</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.157826386379071</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.912128146609945</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.5882029163866</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>48.98249270458098</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.8783417406876</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.79695632652502</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U29" t="n">
         <v>255.6150406962232</v>
       </c>
       <c r="V29" t="n">
-        <v>260.2448533917063</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>14.90459777188966</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.157826386379071</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>130.3218622750543</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H32" t="n">
-        <v>2.43560846765638</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>175.2155145114799</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>46.48229151078672</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.157826386379071</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>267.5816203807195</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>90.00365176891449</v>
       </c>
       <c r="G35" t="n">
-        <v>332.3485513165745</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>274.8783417406876</v>
@@ -25210,7 +25210,7 @@
         <v>210.1627014039893</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25219,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.157826386379071</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T37" t="n">
-        <v>14.90459777188954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>225.2836535593918</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>66.29069673335692</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H38" t="n">
         <v>274.8783417406876</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.79695632652502</v>
       </c>
       <c r="T38" t="n">
         <v>210.1627014039893</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>301.300034371271</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.2629258022421</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.157826386379071</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>117.0549860779062</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7381572744875</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H41" t="n">
-        <v>274.8783417406876</v>
+        <v>31.03416164531799</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>60.15778926450199</v>
       </c>
       <c r="T43" t="n">
         <v>237.16093036331</v>
       </c>
       <c r="U43" t="n">
-        <v>142.7326161220959</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>125.0876530598815</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>78.02212154672668</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.3416766198384</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.145963456660439</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.7179050456562</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.41228859728427</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.157826386379064</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>83.8944858583119</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390668.2650371789</v>
+        <v>390668.2650371791</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390668.2650371788</v>
+        <v>390668.2650371789</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390668.2650371788</v>
+        <v>390668.2650371789</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>390668.2650371788</v>
+        <v>390668.2650371789</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390668.2650371789</v>
+        <v>390668.2650371791</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390668.2650371789</v>
+        <v>390668.2650371791</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390668.265037179</v>
+        <v>390668.2650371791</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>390668.265037179</v>
+        <v>390668.2650371788</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>390668.265037179</v>
+        <v>390668.2650371791</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>387297.3434282963</v>
       </c>
       <c r="C2" t="n">
-        <v>387297.3434282965</v>
+        <v>387297.3434282964</v>
       </c>
       <c r="D2" t="n">
         <v>387452.1540501754</v>
       </c>
       <c r="E2" t="n">
-        <v>227379.0911483677</v>
+        <v>227379.0911483678</v>
       </c>
       <c r="F2" t="n">
-        <v>227379.0911483677</v>
+        <v>227379.0911483678</v>
       </c>
       <c r="G2" t="n">
         <v>227379.0911483677</v>
@@ -26340,22 +26340,22 @@
         <v>227379.0911483677</v>
       </c>
       <c r="K2" t="n">
-        <v>227379.0911483677</v>
+        <v>227379.0911483676</v>
       </c>
       <c r="L2" t="n">
-        <v>227379.0911483677</v>
+        <v>227379.0911483676</v>
       </c>
       <c r="M2" t="n">
         <v>227379.0911483677</v>
       </c>
       <c r="N2" t="n">
-        <v>227379.0911483677</v>
+        <v>227379.0911483676</v>
       </c>
       <c r="O2" t="n">
-        <v>227379.0911483677</v>
+        <v>227379.0911483676</v>
       </c>
       <c r="P2" t="n">
-        <v>227379.0911483677</v>
+        <v>227379.0911483678</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>187.6344729699259</v>
+        <v>187.6344729699547</v>
       </c>
       <c r="M3" t="n">
         <v>130404.6617681471</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="C4" t="n">
         <v>309806.3511207717</v>
@@ -26426,10 +26426,10 @@
         <v>309562.4999443738</v>
       </c>
       <c r="E4" t="n">
-        <v>28982.38653089617</v>
+        <v>28982.38653089618</v>
       </c>
       <c r="F4" t="n">
-        <v>28982.38653089616</v>
+        <v>28982.38653089618</v>
       </c>
       <c r="G4" t="n">
         <v>28982.38653089616</v>
@@ -26438,28 +26438,28 @@
         <v>28982.38653089616</v>
       </c>
       <c r="I4" t="n">
-        <v>28982.38653089617</v>
+        <v>28982.38653089616</v>
       </c>
       <c r="J4" t="n">
         <v>28982.38653089617</v>
       </c>
       <c r="K4" t="n">
-        <v>28982.38653089617</v>
+        <v>28982.38653089615</v>
       </c>
       <c r="L4" t="n">
-        <v>28982.38653089618</v>
+        <v>28982.38653089616</v>
       </c>
       <c r="M4" t="n">
-        <v>28982.38653089618</v>
+        <v>28982.38653089616</v>
       </c>
       <c r="N4" t="n">
-        <v>28982.38653089618</v>
+        <v>28982.38653089616</v>
       </c>
       <c r="O4" t="n">
         <v>28982.38653089616</v>
       </c>
       <c r="P4" t="n">
-        <v>28982.38653089618</v>
+        <v>28982.38653089615</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>34828.17311450307</v>
       </c>
       <c r="E5" t="n">
-        <v>42456.81765990867</v>
+        <v>42456.81765990869</v>
       </c>
       <c r="F5" t="n">
-        <v>42456.81765990867</v>
+        <v>42456.81765990869</v>
       </c>
       <c r="G5" t="n">
-        <v>42456.81765990867</v>
+        <v>42456.81765990869</v>
       </c>
       <c r="H5" t="n">
-        <v>42456.81765990867</v>
+        <v>42456.81765990869</v>
       </c>
       <c r="I5" t="n">
-        <v>42456.81765990867</v>
+        <v>42456.81765990869</v>
       </c>
       <c r="J5" t="n">
         <v>42456.81765990869</v>
@@ -26511,7 +26511,7 @@
         <v>42456.81765990869</v>
       </c>
       <c r="P5" t="n">
-        <v>42456.81765990869</v>
+        <v>42456.8176599087</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7349.455479844801</v>
+        <v>-7371.127544582839</v>
       </c>
       <c r="C6" t="n">
-        <v>42730.42564099546</v>
+        <v>42708.75357625748</v>
       </c>
       <c r="D6" t="n">
-        <v>41946.05515945006</v>
+        <v>41924.95646738577</v>
       </c>
       <c r="E6" t="n">
-        <v>-348216.5651489724</v>
+        <v>-348830.5270369694</v>
       </c>
       <c r="F6" t="n">
-        <v>155939.8869575628</v>
+        <v>155325.925069566</v>
       </c>
       <c r="G6" t="n">
-        <v>155939.8869575629</v>
+        <v>155325.9250695659</v>
       </c>
       <c r="H6" t="n">
-        <v>155939.8869575629</v>
+        <v>155325.925069566</v>
       </c>
       <c r="I6" t="n">
-        <v>155939.8869575629</v>
+        <v>155325.9250695659</v>
       </c>
       <c r="J6" t="n">
-        <v>155939.8869575628</v>
+        <v>155325.9250695659</v>
       </c>
       <c r="K6" t="n">
-        <v>155939.8869575629</v>
+        <v>155325.9250695659</v>
       </c>
       <c r="L6" t="n">
-        <v>155752.2524845929</v>
+        <v>155138.2905965959</v>
       </c>
       <c r="M6" t="n">
-        <v>25535.2251894158</v>
+        <v>24921.26330141886</v>
       </c>
       <c r="N6" t="n">
-        <v>155939.8869575628</v>
+        <v>155325.9250695659</v>
       </c>
       <c r="O6" t="n">
-        <v>155939.8869575629</v>
+        <v>155325.9250695659</v>
       </c>
       <c r="P6" t="n">
-        <v>155939.8869575628</v>
+        <v>155325.925069566</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>486.0562976935888</v>
       </c>
       <c r="G3" t="n">
-        <v>486.0562976935888</v>
+        <v>486.0562976935889</v>
       </c>
       <c r="H3" t="n">
-        <v>486.0562976935888</v>
+        <v>486.0562976935889</v>
       </c>
       <c r="I3" t="n">
         <v>486.0562976935889</v>
@@ -26779,7 +26779,7 @@
         <v>486.0562976935889</v>
       </c>
       <c r="P3" t="n">
-        <v>486.0562976935889</v>
+        <v>486.056297693589</v>
       </c>
     </row>
     <row r="4">
@@ -26798,25 +26798,25 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="E4" t="n">
-        <v>524.0261574044151</v>
+        <v>524.0261574044154</v>
       </c>
       <c r="F4" t="n">
-        <v>524.0261574044151</v>
+        <v>524.0261574044154</v>
       </c>
       <c r="G4" t="n">
-        <v>524.0261574044151</v>
+        <v>524.0261574044152</v>
       </c>
       <c r="H4" t="n">
-        <v>524.0261574044151</v>
+        <v>524.0261574044152</v>
       </c>
       <c r="I4" t="n">
-        <v>524.0261574044151</v>
+        <v>524.0261574044152</v>
       </c>
       <c r="J4" t="n">
         <v>524.0261574044154</v>
       </c>
       <c r="K4" t="n">
-        <v>524.0261574044154</v>
+        <v>524.0261574044152</v>
       </c>
       <c r="L4" t="n">
         <v>524.0261574044154</v>
@@ -26831,7 +26831,7 @@
         <v>524.0261574044154</v>
       </c>
       <c r="P4" t="n">
-        <v>524.0261574044154</v>
+        <v>524.0261574044155</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>1.033534692213102</v>
       </c>
       <c r="E3" t="n">
-        <v>433.0518149954437</v>
+        <v>433.0518149954438</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="E4" t="n">
+        <v>523.2847858306733</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7413715737420716</v>
+      </c>
+      <c r="M4" t="n">
         <v>523.2847858306732</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.7413715737419579</v>
-      </c>
-      <c r="M4" t="n">
-        <v>523.2847858306731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="M4" t="n">
-        <v>523.2847858306732</v>
+        <v>523.2847858306733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27870,16 +27870,16 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>292.7074549078116</v>
+        <v>293.4488264815535</v>
       </c>
       <c r="I8" t="n">
-        <v>26.33300678830426</v>
+        <v>27.07437836204623</v>
       </c>
       <c r="J8" t="n">
-        <v>12.07614829188452</v>
+        <v>11.33477671814256</v>
       </c>
       <c r="K8" t="n">
-        <v>9.40097150015265</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L8" t="n">
         <v>4.685892067245952</v>
@@ -27900,7 +27900,7 @@
         <v>13.11407025899278</v>
       </c>
       <c r="R8" t="n">
-        <v>21.64755306550058</v>
+        <v>22.35897023222267</v>
       </c>
       <c r="S8" t="n">
         <v>98.46798440374585</v>
@@ -27909,7 +27909,7 @@
         <v>217.7835428919996</v>
       </c>
       <c r="U8" t="n">
-        <v>256.4657308084715</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27952,13 +27952,13 @@
         <v>51.74123918360299</v>
       </c>
       <c r="I9" t="n">
-        <v>11.59405469444772</v>
+        <v>11.50568320285767</v>
       </c>
       <c r="J9" t="n">
-        <v>9.839703372948977</v>
+        <v>9.098331799207012</v>
       </c>
       <c r="K9" t="n">
-        <v>3.989176856940833</v>
+        <v>3.247805283198868</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,16 +27976,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.452435918568485</v>
+        <v>7.540807410158527</v>
       </c>
       <c r="R9" t="n">
-        <v>15.85294916875179</v>
+        <v>16.59432074249376</v>
       </c>
       <c r="S9" t="n">
         <v>78.39332586788025</v>
       </c>
       <c r="T9" t="n">
-        <v>139.2602259074094</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U9" t="n">
         <v>182.9130134852156</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.95399516660739</v>
+        <v>1.953995166607391</v>
       </c>
       <c r="H11" t="n">
         <v>20.01135300001794</v>
       </c>
       <c r="I11" t="n">
-        <v>75.33139866063149</v>
+        <v>75.33139866063151</v>
       </c>
       <c r="J11" t="n">
         <v>165.8428972718442</v>
@@ -31767,19 +31767,19 @@
         <v>248.5555126743351</v>
       </c>
       <c r="L11" t="n">
-        <v>308.355092254396</v>
+        <v>308.3550922543961</v>
       </c>
       <c r="M11" t="n">
-        <v>343.1044537985502</v>
+        <v>343.1044537985503</v>
       </c>
       <c r="N11" t="n">
-        <v>348.6562425656735</v>
+        <v>348.6562425656736</v>
       </c>
       <c r="O11" t="n">
         <v>329.2262031277212</v>
       </c>
       <c r="P11" t="n">
-        <v>280.9869474521012</v>
+        <v>280.9869474521013</v>
       </c>
       <c r="Q11" t="n">
         <v>211.009495547974</v>
@@ -31788,7 +31788,7 @@
         <v>122.7426488844016</v>
       </c>
       <c r="S11" t="n">
-        <v>44.52666485906595</v>
+        <v>44.52666485906596</v>
       </c>
       <c r="T11" t="n">
         <v>8.553613841823857</v>
@@ -31837,10 +31837,10 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I12" t="n">
-        <v>35.99567864994974</v>
+        <v>35.99567864994975</v>
       </c>
       <c r="J12" t="n">
-        <v>98.7748934775245</v>
+        <v>98.77489347752451</v>
       </c>
       <c r="K12" t="n">
         <v>168.8220255866496</v>
@@ -31864,7 +31864,7 @@
         <v>133.454551774285</v>
       </c>
       <c r="R12" t="n">
-        <v>64.9114429259476</v>
+        <v>64.91144292594761</v>
       </c>
       <c r="S12" t="n">
         <v>19.41932472389007</v>
@@ -31873,7 +31873,7 @@
         <v>4.214016392267999</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06878155156041353</v>
+        <v>0.06878155156041355</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8764949630540124</v>
+        <v>0.8764949630540125</v>
       </c>
       <c r="H13" t="n">
-        <v>7.792837035152952</v>
+        <v>7.792837035152953</v>
       </c>
       <c r="I13" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J13" t="n">
-        <v>61.96819388791867</v>
+        <v>61.96819388791868</v>
       </c>
       <c r="K13" t="n">
         <v>101.8327784348207</v>
@@ -31940,7 +31940,7 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.3945009517319</v>
+        <v>73.39450095173191</v>
       </c>
       <c r="R13" t="n">
         <v>39.4104007933195</v>
@@ -31949,10 +31949,10 @@
         <v>15.2749167652231</v>
       </c>
       <c r="T13" t="n">
-        <v>3.745023933048961</v>
+        <v>3.745023933048962</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04780881616658255</v>
+        <v>0.04780881616658256</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95399516660739</v>
+        <v>1.953995166607391</v>
       </c>
       <c r="H14" t="n">
         <v>20.01135300001794</v>
       </c>
       <c r="I14" t="n">
-        <v>75.33139866063149</v>
+        <v>75.33139866063151</v>
       </c>
       <c r="J14" t="n">
         <v>165.8428972718442</v>
@@ -32004,19 +32004,19 @@
         <v>248.5555126743351</v>
       </c>
       <c r="L14" t="n">
-        <v>308.355092254396</v>
+        <v>308.3550922543961</v>
       </c>
       <c r="M14" t="n">
-        <v>343.1044537985502</v>
+        <v>343.1044537985503</v>
       </c>
       <c r="N14" t="n">
-        <v>348.6562425656735</v>
+        <v>348.6562425656736</v>
       </c>
       <c r="O14" t="n">
         <v>329.2262031277212</v>
       </c>
       <c r="P14" t="n">
-        <v>280.9869474521012</v>
+        <v>280.9869474521013</v>
       </c>
       <c r="Q14" t="n">
         <v>211.009495547974</v>
@@ -32025,7 +32025,7 @@
         <v>122.7426488844016</v>
       </c>
       <c r="S14" t="n">
-        <v>44.52666485906595</v>
+        <v>44.52666485906596</v>
       </c>
       <c r="T14" t="n">
         <v>8.553613841823857</v>
@@ -32074,10 +32074,10 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I15" t="n">
-        <v>35.99567864994974</v>
+        <v>35.99567864994975</v>
       </c>
       <c r="J15" t="n">
-        <v>98.7748934775245</v>
+        <v>98.77489347752451</v>
       </c>
       <c r="K15" t="n">
         <v>168.8220255866496</v>
@@ -32101,7 +32101,7 @@
         <v>133.454551774285</v>
       </c>
       <c r="R15" t="n">
-        <v>64.9114429259476</v>
+        <v>64.91144292594761</v>
       </c>
       <c r="S15" t="n">
         <v>19.41932472389007</v>
@@ -32110,7 +32110,7 @@
         <v>4.214016392267999</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06878155156041353</v>
+        <v>0.06878155156041355</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8764949630540124</v>
+        <v>0.8764949630540125</v>
       </c>
       <c r="H16" t="n">
-        <v>7.792837035152952</v>
+        <v>7.792837035152953</v>
       </c>
       <c r="I16" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J16" t="n">
-        <v>61.96819388791867</v>
+        <v>61.96819388791868</v>
       </c>
       <c r="K16" t="n">
         <v>101.8327784348207</v>
@@ -32177,7 +32177,7 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.3945009517319</v>
+        <v>73.39450095173191</v>
       </c>
       <c r="R16" t="n">
         <v>39.4104007933195</v>
@@ -32186,10 +32186,10 @@
         <v>15.2749167652231</v>
       </c>
       <c r="T16" t="n">
-        <v>3.745023933048961</v>
+        <v>3.745023933048962</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04780881616658255</v>
+        <v>0.04780881616658256</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.95399516660739</v>
+        <v>1.953995166607391</v>
       </c>
       <c r="H17" t="n">
-        <v>20.01135300001794</v>
+        <v>20.01135300001795</v>
       </c>
       <c r="I17" t="n">
-        <v>75.33139866063149</v>
+        <v>75.33139866063151</v>
       </c>
       <c r="J17" t="n">
         <v>165.8428972718442</v>
@@ -32241,19 +32241,19 @@
         <v>248.5555126743351</v>
       </c>
       <c r="L17" t="n">
-        <v>308.355092254396</v>
+        <v>308.3550922543961</v>
       </c>
       <c r="M17" t="n">
-        <v>343.1044537985502</v>
+        <v>343.1044537985503</v>
       </c>
       <c r="N17" t="n">
-        <v>348.6562425656735</v>
+        <v>348.6562425656736</v>
       </c>
       <c r="O17" t="n">
-        <v>329.2262031277212</v>
+        <v>329.2262031277213</v>
       </c>
       <c r="P17" t="n">
-        <v>280.9869474521012</v>
+        <v>280.9869474521013</v>
       </c>
       <c r="Q17" t="n">
         <v>211.009495547974</v>
@@ -32262,10 +32262,10 @@
         <v>122.7426488844016</v>
       </c>
       <c r="S17" t="n">
-        <v>44.52666485906595</v>
+        <v>44.52666485906597</v>
       </c>
       <c r="T17" t="n">
-        <v>8.553613841823857</v>
+        <v>8.553613841823859</v>
       </c>
       <c r="U17" t="n">
         <v>0.1563196133285912</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.045479583718285</v>
+        <v>1.045479583718286</v>
       </c>
       <c r="H18" t="n">
-        <v>10.0971317690687</v>
+        <v>10.09713176906871</v>
       </c>
       <c r="I18" t="n">
-        <v>35.99567864994974</v>
+        <v>35.99567864994975</v>
       </c>
       <c r="J18" t="n">
-        <v>98.7748934775245</v>
+        <v>98.77489347752453</v>
       </c>
       <c r="K18" t="n">
-        <v>168.8220255866496</v>
+        <v>168.8220255866497</v>
       </c>
       <c r="L18" t="n">
         <v>227.0020473332181</v>
@@ -32338,16 +32338,16 @@
         <v>133.454551774285</v>
       </c>
       <c r="R18" t="n">
-        <v>64.9114429259476</v>
+        <v>64.91144292594761</v>
       </c>
       <c r="S18" t="n">
         <v>19.41932472389007</v>
       </c>
       <c r="T18" t="n">
-        <v>4.214016392267999</v>
+        <v>4.214016392268</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06878155156041353</v>
+        <v>0.06878155156041355</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8764949630540124</v>
+        <v>0.8764949630540126</v>
       </c>
       <c r="H19" t="n">
-        <v>7.792837035152952</v>
+        <v>7.792837035152954</v>
       </c>
       <c r="I19" t="n">
-        <v>26.35859397984249</v>
+        <v>26.3585939798425</v>
       </c>
       <c r="J19" t="n">
-        <v>61.96819388791867</v>
+        <v>61.96819388791869</v>
       </c>
       <c r="K19" t="n">
         <v>101.8327784348207</v>
@@ -32402,31 +32402,31 @@
         <v>130.3108965980484</v>
       </c>
       <c r="M19" t="n">
-        <v>137.3945695267303</v>
+        <v>137.3945695267304</v>
       </c>
       <c r="N19" t="n">
         <v>134.1276337553473</v>
       </c>
       <c r="O19" t="n">
-        <v>123.8885789596708</v>
+        <v>123.8885789596709</v>
       </c>
       <c r="P19" t="n">
         <v>106.0080817133689</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.3945009517319</v>
+        <v>73.39450095173191</v>
       </c>
       <c r="R19" t="n">
         <v>39.4104007933195</v>
       </c>
       <c r="S19" t="n">
-        <v>15.2749167652231</v>
+        <v>15.27491676522311</v>
       </c>
       <c r="T19" t="n">
-        <v>3.745023933048961</v>
+        <v>3.745023933048962</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04780881616658255</v>
+        <v>0.04780881616658256</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.95399516660739</v>
+        <v>1.953995166607391</v>
       </c>
       <c r="H20" t="n">
-        <v>20.01135300001794</v>
+        <v>20.01135300001795</v>
       </c>
       <c r="I20" t="n">
-        <v>75.33139866063149</v>
+        <v>75.33139866063151</v>
       </c>
       <c r="J20" t="n">
         <v>165.8428972718442</v>
@@ -32478,19 +32478,19 @@
         <v>248.5555126743351</v>
       </c>
       <c r="L20" t="n">
-        <v>308.355092254396</v>
+        <v>308.3550922543961</v>
       </c>
       <c r="M20" t="n">
-        <v>343.1044537985502</v>
+        <v>343.1044537985503</v>
       </c>
       <c r="N20" t="n">
-        <v>348.6562425656735</v>
+        <v>348.6562425656736</v>
       </c>
       <c r="O20" t="n">
-        <v>329.2262031277212</v>
+        <v>329.2262031277213</v>
       </c>
       <c r="P20" t="n">
-        <v>280.9869474521012</v>
+        <v>280.9869474521013</v>
       </c>
       <c r="Q20" t="n">
         <v>211.009495547974</v>
@@ -32499,10 +32499,10 @@
         <v>122.7426488844016</v>
       </c>
       <c r="S20" t="n">
-        <v>44.52666485906595</v>
+        <v>44.52666485906597</v>
       </c>
       <c r="T20" t="n">
-        <v>8.553613841823857</v>
+        <v>8.553613841823859</v>
       </c>
       <c r="U20" t="n">
         <v>0.1563196133285912</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.045479583718285</v>
+        <v>1.045479583718286</v>
       </c>
       <c r="H21" t="n">
-        <v>10.0971317690687</v>
+        <v>10.09713176906871</v>
       </c>
       <c r="I21" t="n">
-        <v>35.99567864994974</v>
+        <v>35.99567864994975</v>
       </c>
       <c r="J21" t="n">
-        <v>98.7748934775245</v>
+        <v>98.77489347752453</v>
       </c>
       <c r="K21" t="n">
-        <v>168.8220255866496</v>
+        <v>168.8220255866497</v>
       </c>
       <c r="L21" t="n">
         <v>227.0020473332181</v>
@@ -32575,16 +32575,16 @@
         <v>133.454551774285</v>
       </c>
       <c r="R21" t="n">
-        <v>64.9114429259476</v>
+        <v>64.91144292594761</v>
       </c>
       <c r="S21" t="n">
         <v>19.41932472389007</v>
       </c>
       <c r="T21" t="n">
-        <v>4.214016392267999</v>
+        <v>4.214016392268</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06878155156041353</v>
+        <v>0.06878155156041355</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8764949630540124</v>
+        <v>0.8764949630540126</v>
       </c>
       <c r="H22" t="n">
-        <v>7.792837035152952</v>
+        <v>7.792837035152954</v>
       </c>
       <c r="I22" t="n">
-        <v>26.35859397984249</v>
+        <v>26.3585939798425</v>
       </c>
       <c r="J22" t="n">
-        <v>61.96819388791867</v>
+        <v>61.96819388791869</v>
       </c>
       <c r="K22" t="n">
         <v>101.8327784348207</v>
@@ -32639,31 +32639,31 @@
         <v>130.3108965980484</v>
       </c>
       <c r="M22" t="n">
-        <v>137.3945695267303</v>
+        <v>137.3945695267304</v>
       </c>
       <c r="N22" t="n">
         <v>134.1276337553473</v>
       </c>
       <c r="O22" t="n">
-        <v>123.8885789596708</v>
+        <v>123.8885789596709</v>
       </c>
       <c r="P22" t="n">
         <v>106.0080817133689</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.3945009517319</v>
+        <v>73.39450095173191</v>
       </c>
       <c r="R22" t="n">
         <v>39.4104007933195</v>
       </c>
       <c r="S22" t="n">
-        <v>15.2749167652231</v>
+        <v>15.27491676522311</v>
       </c>
       <c r="T22" t="n">
-        <v>3.745023933048961</v>
+        <v>3.745023933048962</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04780881616658255</v>
+        <v>0.04780881616658256</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.01135300001795</v>
       </c>
       <c r="I23" t="n">
-        <v>75.33139866063151</v>
+        <v>75.33139866063152</v>
       </c>
       <c r="J23" t="n">
         <v>165.8428972718442</v>
@@ -32724,13 +32724,13 @@
         <v>348.6562425656736</v>
       </c>
       <c r="O23" t="n">
-        <v>329.2262031277213</v>
+        <v>329.2262031277214</v>
       </c>
       <c r="P23" t="n">
         <v>280.9869474521013</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.009495547974</v>
+        <v>211.0094955479741</v>
       </c>
       <c r="R23" t="n">
         <v>122.7426488844016</v>
@@ -32742,7 +32742,7 @@
         <v>8.553613841823859</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1563196133285912</v>
+        <v>0.1563196133285913</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>35.99567864994975</v>
       </c>
       <c r="J24" t="n">
-        <v>98.77489347752453</v>
+        <v>98.77489347752454</v>
       </c>
       <c r="K24" t="n">
         <v>168.8220255866497</v>
@@ -32800,19 +32800,19 @@
         <v>264.9006822430059</v>
       </c>
       <c r="N24" t="n">
-        <v>271.9118150653974</v>
+        <v>271.9118150653975</v>
       </c>
       <c r="O24" t="n">
-        <v>248.7461884998501</v>
+        <v>248.7461884998502</v>
       </c>
       <c r="P24" t="n">
         <v>199.6407461224856</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.454551774285</v>
+        <v>133.4545517742851</v>
       </c>
       <c r="R24" t="n">
-        <v>64.91144292594761</v>
+        <v>64.91144292594763</v>
       </c>
       <c r="S24" t="n">
         <v>19.41932472389007</v>
@@ -32821,7 +32821,7 @@
         <v>4.214016392268</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06878155156041355</v>
+        <v>0.06878155156041356</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8764949630540126</v>
+        <v>0.8764949630540128</v>
       </c>
       <c r="H25" t="n">
-        <v>7.792837035152954</v>
+        <v>7.792837035152955</v>
       </c>
       <c r="I25" t="n">
         <v>26.3585939798425</v>
@@ -32888,10 +32888,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.39450095173191</v>
+        <v>73.39450095173193</v>
       </c>
       <c r="R25" t="n">
-        <v>39.4104007933195</v>
+        <v>39.41040079331951</v>
       </c>
       <c r="S25" t="n">
         <v>15.27491676522311</v>
@@ -32900,7 +32900,7 @@
         <v>3.745023933048962</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04780881616658256</v>
+        <v>0.04780881616658257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>20.01135300001795</v>
       </c>
       <c r="I26" t="n">
-        <v>75.33139866063151</v>
+        <v>75.33139866063152</v>
       </c>
       <c r="J26" t="n">
         <v>165.8428972718442</v>
@@ -32961,13 +32961,13 @@
         <v>348.6562425656736</v>
       </c>
       <c r="O26" t="n">
-        <v>329.2262031277213</v>
+        <v>329.2262031277214</v>
       </c>
       <c r="P26" t="n">
         <v>280.9869474521013</v>
       </c>
       <c r="Q26" t="n">
-        <v>211.009495547974</v>
+        <v>211.0094955479741</v>
       </c>
       <c r="R26" t="n">
         <v>122.7426488844016</v>
@@ -32979,7 +32979,7 @@
         <v>8.553613841823859</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1563196133285912</v>
+        <v>0.1563196133285913</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>35.99567864994975</v>
       </c>
       <c r="J27" t="n">
-        <v>98.77489347752453</v>
+        <v>98.77489347752454</v>
       </c>
       <c r="K27" t="n">
         <v>168.8220255866497</v>
@@ -33037,19 +33037,19 @@
         <v>264.9006822430059</v>
       </c>
       <c r="N27" t="n">
-        <v>271.9118150653974</v>
+        <v>271.9118150653975</v>
       </c>
       <c r="O27" t="n">
-        <v>248.7461884998501</v>
+        <v>248.7461884998502</v>
       </c>
       <c r="P27" t="n">
         <v>199.6407461224856</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.454551774285</v>
+        <v>133.4545517742851</v>
       </c>
       <c r="R27" t="n">
-        <v>64.91144292594761</v>
+        <v>64.91144292594763</v>
       </c>
       <c r="S27" t="n">
         <v>19.41932472389007</v>
@@ -33058,7 +33058,7 @@
         <v>4.214016392268</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06878155156041355</v>
+        <v>0.06878155156041356</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8764949630540126</v>
+        <v>0.8764949630540128</v>
       </c>
       <c r="H28" t="n">
-        <v>7.792837035152954</v>
+        <v>7.792837035152955</v>
       </c>
       <c r="I28" t="n">
         <v>26.3585939798425</v>
@@ -33125,10 +33125,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.39450095173191</v>
+        <v>73.39450095173193</v>
       </c>
       <c r="R28" t="n">
-        <v>39.4104007933195</v>
+        <v>39.41040079331951</v>
       </c>
       <c r="S28" t="n">
         <v>15.27491676522311</v>
@@ -33137,7 +33137,7 @@
         <v>3.745023933048962</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04780881616658256</v>
+        <v>0.04780881616658257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>20.01135300001795</v>
       </c>
       <c r="I29" t="n">
-        <v>75.33139866063151</v>
+        <v>75.33139866063152</v>
       </c>
       <c r="J29" t="n">
         <v>165.8428972718442</v>
@@ -33198,13 +33198,13 @@
         <v>348.6562425656736</v>
       </c>
       <c r="O29" t="n">
-        <v>329.2262031277213</v>
+        <v>329.2262031277214</v>
       </c>
       <c r="P29" t="n">
         <v>280.9869474521013</v>
       </c>
       <c r="Q29" t="n">
-        <v>211.009495547974</v>
+        <v>211.0094955479741</v>
       </c>
       <c r="R29" t="n">
         <v>122.7426488844016</v>
@@ -33216,7 +33216,7 @@
         <v>8.553613841823859</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1563196133285912</v>
+        <v>0.1563196133285913</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>35.99567864994975</v>
       </c>
       <c r="J30" t="n">
-        <v>98.77489347752453</v>
+        <v>98.77489347752454</v>
       </c>
       <c r="K30" t="n">
         <v>168.8220255866497</v>
@@ -33274,19 +33274,19 @@
         <v>264.9006822430059</v>
       </c>
       <c r="N30" t="n">
-        <v>271.9118150653974</v>
+        <v>271.9118150653975</v>
       </c>
       <c r="O30" t="n">
-        <v>248.7461884998501</v>
+        <v>248.7461884998502</v>
       </c>
       <c r="P30" t="n">
         <v>199.6407461224856</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.454551774285</v>
+        <v>133.4545517742851</v>
       </c>
       <c r="R30" t="n">
-        <v>64.91144292594761</v>
+        <v>64.91144292594763</v>
       </c>
       <c r="S30" t="n">
         <v>19.41932472389007</v>
@@ -33295,7 +33295,7 @@
         <v>4.214016392268</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06878155156041355</v>
+        <v>0.06878155156041356</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8764949630540126</v>
+        <v>0.8764949630540128</v>
       </c>
       <c r="H31" t="n">
-        <v>7.792837035152954</v>
+        <v>7.792837035152955</v>
       </c>
       <c r="I31" t="n">
         <v>26.3585939798425</v>
@@ -33362,10 +33362,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.39450095173191</v>
+        <v>73.39450095173193</v>
       </c>
       <c r="R31" t="n">
-        <v>39.4104007933195</v>
+        <v>39.41040079331951</v>
       </c>
       <c r="S31" t="n">
         <v>15.27491676522311</v>
@@ -33374,7 +33374,7 @@
         <v>3.745023933048962</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04780881616658256</v>
+        <v>0.04780881616658257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>20.01135300001795</v>
       </c>
       <c r="I32" t="n">
-        <v>75.33139866063151</v>
+        <v>75.33139866063152</v>
       </c>
       <c r="J32" t="n">
         <v>165.8428972718442</v>
@@ -33435,13 +33435,13 @@
         <v>348.6562425656736</v>
       </c>
       <c r="O32" t="n">
-        <v>329.2262031277213</v>
+        <v>329.2262031277214</v>
       </c>
       <c r="P32" t="n">
         <v>280.9869474521013</v>
       </c>
       <c r="Q32" t="n">
-        <v>211.009495547974</v>
+        <v>211.0094955479741</v>
       </c>
       <c r="R32" t="n">
         <v>122.7426488844016</v>
@@ -33453,7 +33453,7 @@
         <v>8.553613841823859</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1563196133285912</v>
+        <v>0.1563196133285913</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,7 +33499,7 @@
         <v>35.99567864994975</v>
       </c>
       <c r="J33" t="n">
-        <v>98.77489347752453</v>
+        <v>98.77489347752454</v>
       </c>
       <c r="K33" t="n">
         <v>168.8220255866497</v>
@@ -33511,19 +33511,19 @@
         <v>264.9006822430059</v>
       </c>
       <c r="N33" t="n">
-        <v>271.9118150653974</v>
+        <v>271.9118150653975</v>
       </c>
       <c r="O33" t="n">
-        <v>248.7461884998501</v>
+        <v>248.7461884998502</v>
       </c>
       <c r="P33" t="n">
         <v>199.6407461224856</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.454551774285</v>
+        <v>133.4545517742851</v>
       </c>
       <c r="R33" t="n">
-        <v>64.91144292594761</v>
+        <v>64.91144292594763</v>
       </c>
       <c r="S33" t="n">
         <v>19.41932472389007</v>
@@ -33532,7 +33532,7 @@
         <v>4.214016392268</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06878155156041355</v>
+        <v>0.06878155156041356</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8764949630540126</v>
+        <v>0.8764949630540128</v>
       </c>
       <c r="H34" t="n">
-        <v>7.792837035152954</v>
+        <v>7.792837035152955</v>
       </c>
       <c r="I34" t="n">
         <v>26.3585939798425</v>
@@ -33599,10 +33599,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.39450095173191</v>
+        <v>73.39450095173193</v>
       </c>
       <c r="R34" t="n">
-        <v>39.4104007933195</v>
+        <v>39.41040079331951</v>
       </c>
       <c r="S34" t="n">
         <v>15.27491676522311</v>
@@ -33611,7 +33611,7 @@
         <v>3.745023933048962</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04780881616658256</v>
+        <v>0.04780881616658257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>20.01135300001795</v>
       </c>
       <c r="I35" t="n">
-        <v>75.33139866063151</v>
+        <v>75.33139866063152</v>
       </c>
       <c r="J35" t="n">
         <v>165.8428972718442</v>
@@ -33672,13 +33672,13 @@
         <v>348.6562425656736</v>
       </c>
       <c r="O35" t="n">
-        <v>329.2262031277213</v>
+        <v>329.2262031277214</v>
       </c>
       <c r="P35" t="n">
         <v>280.9869474521013</v>
       </c>
       <c r="Q35" t="n">
-        <v>211.009495547974</v>
+        <v>211.0094955479741</v>
       </c>
       <c r="R35" t="n">
         <v>122.7426488844016</v>
@@ -33690,7 +33690,7 @@
         <v>8.553613841823859</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1563196133285912</v>
+        <v>0.1563196133285913</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,7 +33736,7 @@
         <v>35.99567864994975</v>
       </c>
       <c r="J36" t="n">
-        <v>98.77489347752453</v>
+        <v>98.77489347752454</v>
       </c>
       <c r="K36" t="n">
         <v>168.8220255866497</v>
@@ -33748,19 +33748,19 @@
         <v>264.9006822430059</v>
       </c>
       <c r="N36" t="n">
-        <v>271.9118150653974</v>
+        <v>271.9118150653975</v>
       </c>
       <c r="O36" t="n">
-        <v>248.7461884998501</v>
+        <v>248.7461884998502</v>
       </c>
       <c r="P36" t="n">
         <v>199.6407461224856</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.454551774285</v>
+        <v>133.4545517742851</v>
       </c>
       <c r="R36" t="n">
-        <v>64.91144292594761</v>
+        <v>64.91144292594763</v>
       </c>
       <c r="S36" t="n">
         <v>19.41932472389007</v>
@@ -33769,7 +33769,7 @@
         <v>4.214016392268</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06878155156041355</v>
+        <v>0.06878155156041356</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8764949630540126</v>
+        <v>0.8764949630540128</v>
       </c>
       <c r="H37" t="n">
-        <v>7.792837035152954</v>
+        <v>7.792837035152955</v>
       </c>
       <c r="I37" t="n">
         <v>26.3585939798425</v>
@@ -33836,10 +33836,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.39450095173191</v>
+        <v>73.39450095173193</v>
       </c>
       <c r="R37" t="n">
-        <v>39.4104007933195</v>
+        <v>39.41040079331951</v>
       </c>
       <c r="S37" t="n">
         <v>15.27491676522311</v>
@@ -33848,7 +33848,7 @@
         <v>3.745023933048962</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04780881616658256</v>
+        <v>0.04780881616658257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>20.01135300001795</v>
       </c>
       <c r="I38" t="n">
-        <v>75.33139866063151</v>
+        <v>75.33139866063152</v>
       </c>
       <c r="J38" t="n">
         <v>165.8428972718442</v>
@@ -33909,13 +33909,13 @@
         <v>348.6562425656736</v>
       </c>
       <c r="O38" t="n">
-        <v>329.2262031277213</v>
+        <v>329.2262031277214</v>
       </c>
       <c r="P38" t="n">
         <v>280.9869474521013</v>
       </c>
       <c r="Q38" t="n">
-        <v>211.009495547974</v>
+        <v>211.0094955479741</v>
       </c>
       <c r="R38" t="n">
         <v>122.7426488844016</v>
@@ -33927,7 +33927,7 @@
         <v>8.553613841823859</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1563196133285912</v>
+        <v>0.1563196133285913</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,7 +33973,7 @@
         <v>35.99567864994975</v>
       </c>
       <c r="J39" t="n">
-        <v>98.77489347752453</v>
+        <v>98.77489347752454</v>
       </c>
       <c r="K39" t="n">
         <v>168.8220255866497</v>
@@ -33985,19 +33985,19 @@
         <v>264.9006822430059</v>
       </c>
       <c r="N39" t="n">
-        <v>271.9118150653974</v>
+        <v>271.9118150653975</v>
       </c>
       <c r="O39" t="n">
-        <v>248.7461884998501</v>
+        <v>248.7461884998502</v>
       </c>
       <c r="P39" t="n">
         <v>199.6407461224856</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.454551774285</v>
+        <v>133.4545517742851</v>
       </c>
       <c r="R39" t="n">
-        <v>64.91144292594761</v>
+        <v>64.91144292594763</v>
       </c>
       <c r="S39" t="n">
         <v>19.41932472389007</v>
@@ -34006,7 +34006,7 @@
         <v>4.214016392268</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06878155156041355</v>
+        <v>0.06878155156041356</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8764949630540126</v>
+        <v>0.8764949630540128</v>
       </c>
       <c r="H40" t="n">
-        <v>7.792837035152954</v>
+        <v>7.792837035152955</v>
       </c>
       <c r="I40" t="n">
         <v>26.3585939798425</v>
@@ -34073,10 +34073,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.39450095173191</v>
+        <v>73.39450095173193</v>
       </c>
       <c r="R40" t="n">
-        <v>39.4104007933195</v>
+        <v>39.41040079331951</v>
       </c>
       <c r="S40" t="n">
         <v>15.27491676522311</v>
@@ -34085,7 +34085,7 @@
         <v>3.745023933048962</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04780881616658256</v>
+        <v>0.04780881616658257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>20.01135300001795</v>
       </c>
       <c r="I41" t="n">
-        <v>75.33139866063151</v>
+        <v>75.33139866063152</v>
       </c>
       <c r="J41" t="n">
         <v>165.8428972718442</v>
@@ -34146,13 +34146,13 @@
         <v>348.6562425656736</v>
       </c>
       <c r="O41" t="n">
-        <v>329.2262031277213</v>
+        <v>329.2262031277214</v>
       </c>
       <c r="P41" t="n">
-        <v>280.9869474521016</v>
+        <v>280.9869474521013</v>
       </c>
       <c r="Q41" t="n">
-        <v>211.009495547974</v>
+        <v>211.0094955479741</v>
       </c>
       <c r="R41" t="n">
         <v>122.7426488844016</v>
@@ -34164,7 +34164,7 @@
         <v>8.553613841823859</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1563196133285912</v>
+        <v>0.1563196133285913</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>35.99567864994975</v>
       </c>
       <c r="J42" t="n">
-        <v>98.77489347752453</v>
+        <v>98.77489347752454</v>
       </c>
       <c r="K42" t="n">
         <v>168.8220255866497</v>
@@ -34222,19 +34222,19 @@
         <v>264.9006822430059</v>
       </c>
       <c r="N42" t="n">
-        <v>271.9118150653974</v>
+        <v>271.9118150653975</v>
       </c>
       <c r="O42" t="n">
-        <v>248.7461884998501</v>
+        <v>248.7461884998502</v>
       </c>
       <c r="P42" t="n">
         <v>199.6407461224856</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.454551774285</v>
+        <v>133.4545517742851</v>
       </c>
       <c r="R42" t="n">
-        <v>64.91144292594761</v>
+        <v>64.91144292594763</v>
       </c>
       <c r="S42" t="n">
         <v>19.41932472389007</v>
@@ -34243,7 +34243,7 @@
         <v>4.214016392268</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06878155156041355</v>
+        <v>0.06878155156041356</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8764949630540126</v>
+        <v>0.8764949630540128</v>
       </c>
       <c r="H43" t="n">
-        <v>7.792837035152954</v>
+        <v>7.792837035152955</v>
       </c>
       <c r="I43" t="n">
         <v>26.3585939798425</v>
@@ -34310,10 +34310,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.39450095173191</v>
+        <v>73.39450095173193</v>
       </c>
       <c r="R43" t="n">
-        <v>39.4104007933195</v>
+        <v>39.41040079331951</v>
       </c>
       <c r="S43" t="n">
         <v>15.27491676522311</v>
@@ -34322,7 +34322,7 @@
         <v>3.745023933048962</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04780881616658256</v>
+        <v>0.04780881616658257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.953995166607391</v>
+        <v>1.953995166607392</v>
       </c>
       <c r="H44" t="n">
-        <v>20.01135300001795</v>
+        <v>20.01135300001796</v>
       </c>
       <c r="I44" t="n">
-        <v>75.33139866063198</v>
+        <v>75.33139866063154</v>
       </c>
       <c r="J44" t="n">
-        <v>165.8428972718442</v>
+        <v>165.8428972718443</v>
       </c>
       <c r="K44" t="n">
-        <v>248.5555126743351</v>
+        <v>248.5555126743352</v>
       </c>
       <c r="L44" t="n">
-        <v>308.3550922543961</v>
+        <v>308.3550922543962</v>
       </c>
       <c r="M44" t="n">
-        <v>343.1044537985503</v>
+        <v>343.1044537985504</v>
       </c>
       <c r="N44" t="n">
-        <v>348.6562425656736</v>
+        <v>348.6562425656737</v>
       </c>
       <c r="O44" t="n">
-        <v>329.2262031277213</v>
+        <v>329.2262031277214</v>
       </c>
       <c r="P44" t="n">
-        <v>280.9869474521013</v>
+        <v>280.9869474521014</v>
       </c>
       <c r="Q44" t="n">
-        <v>211.009495547974</v>
+        <v>211.0094955479741</v>
       </c>
       <c r="R44" t="n">
-        <v>122.7426488844016</v>
+        <v>122.7426488844017</v>
       </c>
       <c r="S44" t="n">
-        <v>44.52666485906597</v>
+        <v>44.52666485906598</v>
       </c>
       <c r="T44" t="n">
-        <v>8.553613841823859</v>
+        <v>8.553613841823861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1563196133285912</v>
+        <v>0.1563196133285913</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,43 +34444,43 @@
         <v>10.09713176906871</v>
       </c>
       <c r="I45" t="n">
-        <v>35.99567864994975</v>
+        <v>35.99567864994976</v>
       </c>
       <c r="J45" t="n">
-        <v>98.77489347752453</v>
+        <v>98.77489347752456</v>
       </c>
       <c r="K45" t="n">
         <v>168.8220255866497</v>
       </c>
       <c r="L45" t="n">
-        <v>227.0020473332181</v>
+        <v>227.0020473332182</v>
       </c>
       <c r="M45" t="n">
-        <v>264.9006822430059</v>
+        <v>264.900682243006</v>
       </c>
       <c r="N45" t="n">
-        <v>271.9118150653974</v>
+        <v>271.9118150653975</v>
       </c>
       <c r="O45" t="n">
-        <v>248.7461884998501</v>
+        <v>248.7461884998502</v>
       </c>
       <c r="P45" t="n">
-        <v>199.6407461224856</v>
+        <v>199.6407461224857</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.454551774285</v>
+        <v>133.4545517742851</v>
       </c>
       <c r="R45" t="n">
-        <v>64.91144292594761</v>
+        <v>64.91144292594764</v>
       </c>
       <c r="S45" t="n">
-        <v>19.41932472389007</v>
+        <v>19.41932472389008</v>
       </c>
       <c r="T45" t="n">
-        <v>4.214016392268</v>
+        <v>4.214016392268002</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06878155156041355</v>
+        <v>0.06878155156041357</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,28 +34517,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8764949630540126</v>
+        <v>0.876494963054013</v>
       </c>
       <c r="H46" t="n">
-        <v>7.792837035152954</v>
+        <v>7.792837035152957</v>
       </c>
       <c r="I46" t="n">
-        <v>26.3585939798425</v>
+        <v>26.35859397984251</v>
       </c>
       <c r="J46" t="n">
-        <v>61.96819388791869</v>
+        <v>61.96819388791871</v>
       </c>
       <c r="K46" t="n">
-        <v>101.8327784348207</v>
+        <v>101.8327784348208</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3108965980484</v>
+        <v>130.3108965980485</v>
       </c>
       <c r="M46" t="n">
         <v>137.3945695267304</v>
       </c>
       <c r="N46" t="n">
-        <v>134.1276337553473</v>
+        <v>134.1276337553474</v>
       </c>
       <c r="O46" t="n">
         <v>123.8885789596709</v>
@@ -34547,19 +34547,19 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.39450095173191</v>
+        <v>73.39450095173194</v>
       </c>
       <c r="R46" t="n">
-        <v>39.4104007933195</v>
+        <v>39.41040079331952</v>
       </c>
       <c r="S46" t="n">
         <v>15.27491676522311</v>
       </c>
       <c r="T46" t="n">
-        <v>3.745023933048962</v>
+        <v>3.745023933048963</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04780881616658256</v>
+        <v>0.04780881616658258</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35166,16 +35166,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.7114171667220875</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35205,7 +35205,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7114171667220875</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.78349611666799</v>
+        <v>40.783496116668</v>
       </c>
       <c r="J11" t="n">
         <v>136.4229377862576</v>
       </c>
       <c r="K11" t="n">
-        <v>212.7909118795257</v>
+        <v>212.7909118795258</v>
       </c>
       <c r="L11" t="n">
         <v>270.0430498217731</v>
@@ -35427,10 +35427,10 @@
         <v>291.8352437716972</v>
       </c>
       <c r="P11" t="n">
-        <v>243.4115856418699</v>
+        <v>243.41158564187</v>
       </c>
       <c r="Q11" t="n">
-        <v>174.8848209433759</v>
+        <v>174.884820943376</v>
       </c>
       <c r="R11" t="n">
         <v>87.70999898960514</v>
@@ -35488,7 +35488,7 @@
         <v>19.82329189994974</v>
       </c>
       <c r="J12" t="n">
-        <v>372.9090057759443</v>
+        <v>78.16377914419118</v>
       </c>
       <c r="K12" t="n">
         <v>146.4227917533163</v>
@@ -35509,10 +35509,10 @@
         <v>177.8699049176569</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.7075134853065</v>
+        <v>405.4527401170596</v>
       </c>
       <c r="R12" t="n">
-        <v>41.23852353180345</v>
+        <v>41.23852353180347</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.33143790401681</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K13" t="n">
         <v>330.6485372285956</v>
       </c>
       <c r="L13" t="n">
-        <v>488.5829383095845</v>
+        <v>311.9182225798077</v>
       </c>
       <c r="M13" t="n">
-        <v>524.0261574044151</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N13" t="n">
         <v>113.3787327797469</v>
       </c>
       <c r="O13" t="n">
-        <v>444.5618327124303</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P13" t="n">
-        <v>83.6272810553824</v>
+        <v>399.5426392102386</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.77493818694695</v>
+        <v>201.6774607908854</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.78349611666799</v>
+        <v>40.783496116668</v>
       </c>
       <c r="J14" t="n">
         <v>136.4229377862576</v>
       </c>
       <c r="K14" t="n">
-        <v>212.7909118795257</v>
+        <v>212.7909118795258</v>
       </c>
       <c r="L14" t="n">
         <v>270.0430498217731</v>
@@ -35664,10 +35664,10 @@
         <v>291.8352437716972</v>
       </c>
       <c r="P14" t="n">
-        <v>243.4115856418699</v>
+        <v>243.41158564187</v>
       </c>
       <c r="Q14" t="n">
-        <v>174.8848209433759</v>
+        <v>174.884820943376</v>
       </c>
       <c r="R14" t="n">
         <v>87.70999898960514</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J15" t="n">
-        <v>78.16377914419117</v>
+        <v>78.16377914419118</v>
       </c>
       <c r="K15" t="n">
         <v>146.4227917533163</v>
@@ -35740,16 +35740,16 @@
         <v>250.5687868518557</v>
       </c>
       <c r="O15" t="n">
-        <v>520.319525409381</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P15" t="n">
         <v>177.8699049176569</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.7075134853065</v>
+        <v>275.2377844308801</v>
       </c>
       <c r="R15" t="n">
-        <v>41.23852353180345</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>120.0402425991894</v>
       </c>
       <c r="K16" t="n">
-        <v>80.8681239821087</v>
+        <v>330.6485372285956</v>
       </c>
       <c r="L16" t="n">
         <v>488.5829383095845</v>
       </c>
       <c r="M16" t="n">
-        <v>524.0261574044151</v>
+        <v>319.6719132016327</v>
       </c>
       <c r="N16" t="n">
         <v>113.3787327797469</v>
       </c>
       <c r="O16" t="n">
-        <v>482.9068907574113</v>
+        <v>101.3893914612464</v>
       </c>
       <c r="P16" t="n">
-        <v>216.3538315617156</v>
+        <v>399.5426392102386</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.77493818694695</v>
+        <v>201.6774607908854</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>40.78349611666799</v>
+        <v>40.783496116668</v>
       </c>
       <c r="J17" t="n">
-        <v>136.4229377862576</v>
+        <v>136.4229377862577</v>
       </c>
       <c r="K17" t="n">
-        <v>212.7909118795257</v>
+        <v>212.7909118795258</v>
       </c>
       <c r="L17" t="n">
-        <v>270.0430498217731</v>
+        <v>270.0430498217732</v>
       </c>
       <c r="M17" t="n">
-        <v>305.6731908991184</v>
+        <v>305.6731908991185</v>
       </c>
       <c r="N17" t="n">
         <v>311.3766197312275</v>
@@ -35901,13 +35901,13 @@
         <v>291.8352437716972</v>
       </c>
       <c r="P17" t="n">
-        <v>243.4115856418699</v>
+        <v>243.41158564187</v>
       </c>
       <c r="Q17" t="n">
-        <v>174.8848209433759</v>
+        <v>174.884820943376</v>
       </c>
       <c r="R17" t="n">
-        <v>87.70999898960514</v>
+        <v>87.70999898960517</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>32.34626285796573</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J18" t="n">
-        <v>78.16377914419117</v>
+        <v>242.6940500897646</v>
       </c>
       <c r="K18" t="n">
         <v>146.4227917533163</v>
@@ -35971,22 +35971,22 @@
         <v>204.4869606189885</v>
       </c>
       <c r="M18" t="n">
-        <v>524.0261574044151</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N18" t="n">
-        <v>250.5687868518557</v>
+        <v>250.5687868518558</v>
       </c>
       <c r="O18" t="n">
         <v>225.5742987776279</v>
       </c>
       <c r="P18" t="n">
-        <v>177.8699049176569</v>
+        <v>177.869904917657</v>
       </c>
       <c r="Q18" t="n">
         <v>110.7075134853065</v>
       </c>
       <c r="R18" t="n">
-        <v>41.23852353180345</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>120.0402425991894</v>
       </c>
       <c r="K19" t="n">
-        <v>80.8681239821087</v>
+        <v>330.6485372285957</v>
       </c>
       <c r="L19" t="n">
-        <v>159.6451784102531</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M19" t="n">
         <v>114.8191296352445</v>
       </c>
       <c r="N19" t="n">
-        <v>515.4321901957875</v>
+        <v>113.3787327797469</v>
       </c>
       <c r="O19" t="n">
-        <v>482.9068907574113</v>
+        <v>306.2421750276339</v>
       </c>
       <c r="P19" t="n">
         <v>399.5426392102386</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>40.78349611666799</v>
+        <v>40.783496116668</v>
       </c>
       <c r="J20" t="n">
-        <v>136.4229377862576</v>
+        <v>136.4229377862577</v>
       </c>
       <c r="K20" t="n">
-        <v>212.7909118795257</v>
+        <v>212.7909118795258</v>
       </c>
       <c r="L20" t="n">
-        <v>270.0430498217731</v>
+        <v>270.0430498217732</v>
       </c>
       <c r="M20" t="n">
-        <v>305.6731908991184</v>
+        <v>305.6731908991185</v>
       </c>
       <c r="N20" t="n">
         <v>311.3766197312275</v>
@@ -36138,13 +36138,13 @@
         <v>291.8352437716972</v>
       </c>
       <c r="P20" t="n">
-        <v>243.4115856418699</v>
+        <v>243.41158564187</v>
       </c>
       <c r="Q20" t="n">
-        <v>174.8848209433759</v>
+        <v>174.884820943376</v>
       </c>
       <c r="R20" t="n">
-        <v>87.70999898960514</v>
+        <v>87.70999898960517</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J21" t="n">
-        <v>78.16377914419117</v>
+        <v>78.1637791441912</v>
       </c>
       <c r="K21" t="n">
         <v>146.4227917533163</v>
       </c>
       <c r="L21" t="n">
-        <v>392.711479892251</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M21" t="n">
         <v>241.8039017306779</v>
       </c>
       <c r="N21" t="n">
-        <v>250.5687868518557</v>
+        <v>250.5687868518558</v>
       </c>
       <c r="O21" t="n">
         <v>225.5742987776279</v>
       </c>
       <c r="P21" t="n">
-        <v>177.8699049176569</v>
+        <v>177.869904917657</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.7075134853065</v>
+        <v>381.7584917893707</v>
       </c>
       <c r="R21" t="n">
-        <v>147.7592308902942</v>
+        <v>41.23852353180347</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.33143790401681</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K22" t="n">
-        <v>330.6485372285956</v>
+        <v>330.6485372285957</v>
       </c>
       <c r="L22" t="n">
-        <v>108.3921367023472</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M22" t="n">
-        <v>376.5180620880012</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N22" t="n">
-        <v>515.4321901957875</v>
+        <v>113.3787327797469</v>
       </c>
       <c r="O22" t="n">
-        <v>101.3893914612464</v>
+        <v>459.1446976315725</v>
       </c>
       <c r="P22" t="n">
         <v>399.5426392102386</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694697</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>40.783496116668</v>
+        <v>40.78349611666802</v>
       </c>
       <c r="J23" t="n">
         <v>136.4229377862577</v>
@@ -36369,10 +36369,10 @@
         <v>305.6731908991185</v>
       </c>
       <c r="N23" t="n">
-        <v>311.3766197312275</v>
+        <v>311.3766197312276</v>
       </c>
       <c r="O23" t="n">
-        <v>291.8352437716972</v>
+        <v>291.8352437716973</v>
       </c>
       <c r="P23" t="n">
         <v>243.41158564187</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.82329189994974</v>
+        <v>19.82329189994975</v>
       </c>
       <c r="J24" t="n">
-        <v>78.1637791441912</v>
+        <v>372.9090057759439</v>
       </c>
       <c r="K24" t="n">
         <v>146.4227917533163</v>
       </c>
       <c r="L24" t="n">
-        <v>204.4869606189885</v>
+        <v>204.4869606189886</v>
       </c>
       <c r="M24" t="n">
         <v>241.8039017306779</v>
       </c>
       <c r="N24" t="n">
-        <v>524.0261574044151</v>
+        <v>250.5687868518558</v>
       </c>
       <c r="O24" t="n">
         <v>225.5742987776279</v>
@@ -36457,10 +36457,10 @@
         <v>177.869904917657</v>
       </c>
       <c r="Q24" t="n">
-        <v>131.9953695645002</v>
+        <v>110.7075134853065</v>
       </c>
       <c r="R24" t="n">
-        <v>41.23852353180347</v>
+        <v>41.23852353180348</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401682</v>
       </c>
       <c r="K25" t="n">
-        <v>257.3341598209473</v>
+        <v>80.86812398210873</v>
       </c>
       <c r="L25" t="n">
-        <v>108.3921367023472</v>
+        <v>488.5829383095846</v>
       </c>
       <c r="M25" t="n">
-        <v>524.0261574044151</v>
+        <v>524.0261574044152</v>
       </c>
       <c r="N25" t="n">
         <v>515.4321901957875</v>
       </c>
       <c r="O25" t="n">
-        <v>101.3893914612464</v>
+        <v>292.2887885428768</v>
       </c>
       <c r="P25" t="n">
-        <v>399.5426392102386</v>
+        <v>83.62728105538243</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.77493818694697</v>
+        <v>48.77493818694698</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>40.783496116668</v>
+        <v>40.78349611666802</v>
       </c>
       <c r="J26" t="n">
         <v>136.4229377862577</v>
@@ -36606,10 +36606,10 @@
         <v>305.6731908991185</v>
       </c>
       <c r="N26" t="n">
-        <v>311.3766197312275</v>
+        <v>311.3766197312276</v>
       </c>
       <c r="O26" t="n">
-        <v>291.8352437716972</v>
+        <v>291.8352437716973</v>
       </c>
       <c r="P26" t="n">
         <v>243.41158564187</v>
@@ -36673,13 +36673,13 @@
         <v>43.51754022763848</v>
       </c>
       <c r="J27" t="n">
-        <v>242.6940500897646</v>
+        <v>349.2147574482552</v>
       </c>
       <c r="K27" t="n">
         <v>146.4227917533163</v>
       </c>
       <c r="L27" t="n">
-        <v>204.4869606189885</v>
+        <v>204.4869606189886</v>
       </c>
       <c r="M27" t="n">
         <v>241.8039017306779</v>
@@ -36697,7 +36697,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R27" t="n">
-        <v>147.7592308902942</v>
+        <v>41.23852353180348</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401682</v>
       </c>
       <c r="K28" t="n">
-        <v>132.1211656900154</v>
+        <v>232.6926261939913</v>
       </c>
       <c r="L28" t="n">
-        <v>108.3921367023472</v>
+        <v>488.5829383095846</v>
       </c>
       <c r="M28" t="n">
         <v>114.8191296352445</v>
       </c>
       <c r="N28" t="n">
-        <v>515.4321901957875</v>
+        <v>113.3787327797469</v>
       </c>
       <c r="O28" t="n">
-        <v>482.9068907574113</v>
+        <v>482.9068907574114</v>
       </c>
       <c r="P28" t="n">
         <v>399.5426392102386</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40.783496116668</v>
+        <v>40.78349611666802</v>
       </c>
       <c r="J29" t="n">
         <v>136.4229377862577</v>
@@ -36843,10 +36843,10 @@
         <v>305.6731908991185</v>
       </c>
       <c r="N29" t="n">
-        <v>311.3766197312275</v>
+        <v>311.3766197312276</v>
       </c>
       <c r="O29" t="n">
-        <v>291.8352437716972</v>
+        <v>291.8352437716973</v>
       </c>
       <c r="P29" t="n">
         <v>243.41158564187</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J30" t="n">
-        <v>78.1637791441912</v>
+        <v>242.6940500897642</v>
       </c>
       <c r="K30" t="n">
         <v>146.4227917533163</v>
       </c>
       <c r="L30" t="n">
-        <v>204.4869606189885</v>
+        <v>204.4869606189886</v>
       </c>
       <c r="M30" t="n">
         <v>241.8039017306779</v>
@@ -36928,13 +36928,13 @@
         <v>225.5742987776279</v>
       </c>
       <c r="P30" t="n">
-        <v>472.61513154941</v>
+        <v>177.869904917657</v>
       </c>
       <c r="Q30" t="n">
         <v>110.7075134853065</v>
       </c>
       <c r="R30" t="n">
-        <v>41.23852353180347</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401682</v>
       </c>
       <c r="K31" t="n">
         <v>80.86812398210873</v>
       </c>
       <c r="L31" t="n">
-        <v>108.3921367023472</v>
+        <v>297.96483609505</v>
       </c>
       <c r="M31" t="n">
-        <v>524.0261574044154</v>
+        <v>524.0261574044152</v>
       </c>
       <c r="N31" t="n">
         <v>515.4321901957875</v>
       </c>
       <c r="O31" t="n">
-        <v>124.9529046961472</v>
+        <v>482.9068907574114</v>
       </c>
       <c r="P31" t="n">
-        <v>399.5426392102386</v>
+        <v>83.62728105538243</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694698</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>40.783496116668</v>
+        <v>40.78349611666802</v>
       </c>
       <c r="J32" t="n">
         <v>136.4229377862577</v>
@@ -37080,10 +37080,10 @@
         <v>305.6731908991185</v>
       </c>
       <c r="N32" t="n">
-        <v>311.3766197312275</v>
+        <v>311.3766197312276</v>
       </c>
       <c r="O32" t="n">
-        <v>291.8352437716972</v>
+        <v>291.8352437716973</v>
       </c>
       <c r="P32" t="n">
         <v>243.41158564187</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J33" t="n">
-        <v>78.1637791441912</v>
+        <v>242.6940500897642</v>
       </c>
       <c r="K33" t="n">
         <v>146.4227917533163</v>
       </c>
       <c r="L33" t="n">
-        <v>204.4869606189885</v>
+        <v>204.4869606189886</v>
       </c>
       <c r="M33" t="n">
         <v>241.8039017306779</v>
@@ -37165,7 +37165,7 @@
         <v>225.5742987776279</v>
       </c>
       <c r="P33" t="n">
-        <v>366.0944241909192</v>
+        <v>177.869904917657</v>
       </c>
       <c r="Q33" t="n">
         <v>110.7075134853065</v>
@@ -37232,22 +37232,22 @@
         <v>80.86812398210873</v>
       </c>
       <c r="L34" t="n">
-        <v>159.6451784102539</v>
+        <v>108.3921367023472</v>
       </c>
       <c r="M34" t="n">
-        <v>114.8191296352445</v>
+        <v>524.0261574044154</v>
       </c>
       <c r="N34" t="n">
         <v>515.4321901957875</v>
       </c>
       <c r="O34" t="n">
-        <v>482.9068907574113</v>
+        <v>482.9068907574114</v>
       </c>
       <c r="P34" t="n">
-        <v>399.5426392102386</v>
+        <v>83.62728105538243</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.6774607908854</v>
+        <v>159.6388328844775</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>40.783496116668</v>
+        <v>40.78349611666802</v>
       </c>
       <c r="J35" t="n">
         <v>136.4229377862577</v>
@@ -37317,10 +37317,10 @@
         <v>305.6731908991185</v>
       </c>
       <c r="N35" t="n">
-        <v>311.3766197312275</v>
+        <v>311.3766197312276</v>
       </c>
       <c r="O35" t="n">
-        <v>291.8352437716972</v>
+        <v>291.8352437716973</v>
       </c>
       <c r="P35" t="n">
         <v>243.41158564187</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J36" t="n">
-        <v>78.1637791441912</v>
+        <v>242.6940500897642</v>
       </c>
       <c r="K36" t="n">
         <v>146.4227917533163</v>
       </c>
       <c r="L36" t="n">
-        <v>204.4869606189885</v>
+        <v>204.4869606189886</v>
       </c>
       <c r="M36" t="n">
         <v>241.8039017306779</v>
@@ -37399,7 +37399,7 @@
         <v>250.5687868518558</v>
       </c>
       <c r="O36" t="n">
-        <v>520.3195254093808</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P36" t="n">
         <v>177.869904917657</v>
@@ -37408,7 +37408,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R36" t="n">
-        <v>41.23852353180347</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.33143790401682</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K37" t="n">
         <v>80.86812398210873</v>
@@ -37472,19 +37472,19 @@
         <v>108.3921367023472</v>
       </c>
       <c r="M37" t="n">
-        <v>244.7809760383238</v>
+        <v>524.0261574044154</v>
       </c>
       <c r="N37" t="n">
         <v>515.4321901957875</v>
       </c>
       <c r="O37" t="n">
-        <v>482.9068907574113</v>
+        <v>482.9068907574114</v>
       </c>
       <c r="P37" t="n">
-        <v>399.5426392102386</v>
+        <v>83.62728105538243</v>
       </c>
       <c r="Q37" t="n">
-        <v>201.6774607908854</v>
+        <v>159.6388328844775</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>40.783496116668</v>
+        <v>40.78349611666802</v>
       </c>
       <c r="J38" t="n">
         <v>136.4229377862577</v>
@@ -37554,10 +37554,10 @@
         <v>305.6731908991185</v>
       </c>
       <c r="N38" t="n">
-        <v>311.3766197312275</v>
+        <v>311.3766197312276</v>
       </c>
       <c r="O38" t="n">
-        <v>291.8352437716972</v>
+        <v>291.8352437716973</v>
       </c>
       <c r="P38" t="n">
         <v>243.41158564187</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J39" t="n">
-        <v>78.1637791441912</v>
+        <v>242.6940500897642</v>
       </c>
       <c r="K39" t="n">
         <v>146.4227917533163</v>
       </c>
       <c r="L39" t="n">
-        <v>204.4869606189885</v>
+        <v>204.4869606189886</v>
       </c>
       <c r="M39" t="n">
         <v>241.8039017306779</v>
@@ -37636,7 +37636,7 @@
         <v>250.5687868518558</v>
       </c>
       <c r="O39" t="n">
-        <v>520.3195254093808</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P39" t="n">
         <v>177.869904917657</v>
@@ -37645,7 +37645,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R39" t="n">
-        <v>41.23852353180347</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,22 +37706,22 @@
         <v>330.6485372285957</v>
       </c>
       <c r="L40" t="n">
-        <v>108.3921367023472</v>
+        <v>488.5829383095846</v>
       </c>
       <c r="M40" t="n">
         <v>114.8191296352445</v>
       </c>
       <c r="N40" t="n">
-        <v>515.4321901957875</v>
+        <v>113.3787327797469</v>
       </c>
       <c r="O40" t="n">
-        <v>482.9068907574113</v>
+        <v>384.9509797228069</v>
       </c>
       <c r="P40" t="n">
         <v>399.5426392102386</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.85889394747787</v>
+        <v>201.6774607908854</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.783496116668</v>
+        <v>40.78349611666802</v>
       </c>
       <c r="J41" t="n">
         <v>136.4229377862577</v>
@@ -37791,13 +37791,13 @@
         <v>305.6731908991185</v>
       </c>
       <c r="N41" t="n">
-        <v>311.3766197312275</v>
+        <v>311.3766197312276</v>
       </c>
       <c r="O41" t="n">
-        <v>291.8352437716972</v>
+        <v>291.8352437716973</v>
       </c>
       <c r="P41" t="n">
-        <v>243.4115856418703</v>
+        <v>243.41158564187</v>
       </c>
       <c r="Q41" t="n">
         <v>174.884820943376</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J42" t="n">
-        <v>78.1637791441912</v>
+        <v>242.6940500897642</v>
       </c>
       <c r="K42" t="n">
         <v>146.4227917533163</v>
       </c>
       <c r="L42" t="n">
-        <v>204.4869606189885</v>
+        <v>204.4869606189886</v>
       </c>
       <c r="M42" t="n">
         <v>241.8039017306779</v>
@@ -37879,10 +37879,10 @@
         <v>177.869904917657</v>
       </c>
       <c r="Q42" t="n">
-        <v>405.4527401170592</v>
+        <v>110.7075134853065</v>
       </c>
       <c r="R42" t="n">
-        <v>41.23852353180347</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>41.33143790401682</v>
       </c>
       <c r="K43" t="n">
-        <v>183.140441912182</v>
+        <v>330.6485372285957</v>
       </c>
       <c r="L43" t="n">
-        <v>108.3921367023472</v>
+        <v>113.7865639898721</v>
       </c>
       <c r="M43" t="n">
         <v>524.0261574044154</v>
@@ -37958,7 +37958,7 @@
         <v>399.5426392102386</v>
       </c>
       <c r="Q43" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694698</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.78349611666847</v>
+        <v>40.78349611666803</v>
       </c>
       <c r="J44" t="n">
         <v>136.4229377862577</v>
       </c>
       <c r="K44" t="n">
-        <v>212.7909118795258</v>
+        <v>212.7909118795259</v>
       </c>
       <c r="L44" t="n">
-        <v>270.0430498217732</v>
+        <v>270.0430498217733</v>
       </c>
       <c r="M44" t="n">
-        <v>305.6731908991185</v>
+        <v>305.6731908991186</v>
       </c>
       <c r="N44" t="n">
-        <v>311.3766197312275</v>
+        <v>311.3766197312277</v>
       </c>
       <c r="O44" t="n">
-        <v>291.8352437716972</v>
+        <v>291.8352437716973</v>
       </c>
       <c r="P44" t="n">
-        <v>243.41158564187</v>
+        <v>243.4115856418701</v>
       </c>
       <c r="Q44" t="n">
-        <v>174.884820943376</v>
+        <v>174.8848209433761</v>
       </c>
       <c r="R44" t="n">
-        <v>87.70999898960517</v>
+        <v>87.7099989896052</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763849</v>
       </c>
       <c r="J45" t="n">
-        <v>78.1637791441912</v>
+        <v>242.694050089764</v>
       </c>
       <c r="K45" t="n">
-        <v>146.4227917533163</v>
+        <v>146.4227917533164</v>
       </c>
       <c r="L45" t="n">
-        <v>204.4869606189885</v>
+        <v>204.4869606189886</v>
       </c>
       <c r="M45" t="n">
-        <v>241.8039017306779</v>
+        <v>241.803901730678</v>
       </c>
       <c r="N45" t="n">
-        <v>250.5687868518558</v>
+        <v>250.5687868518559</v>
       </c>
       <c r="O45" t="n">
-        <v>520.3195254093808</v>
+        <v>225.574298777628</v>
       </c>
       <c r="P45" t="n">
         <v>177.869904917657</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.7075134853065</v>
+        <v>110.7075134853066</v>
       </c>
       <c r="R45" t="n">
-        <v>41.23852353180347</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>96.27804947335112</v>
+        <v>78.00161469278167</v>
       </c>
       <c r="K46" t="n">
-        <v>330.6485372285957</v>
+        <v>80.86812398210876</v>
       </c>
       <c r="L46" t="n">
-        <v>488.5829383095845</v>
+        <v>108.3921367023472</v>
       </c>
       <c r="M46" t="n">
-        <v>114.8191296352445</v>
+        <v>524.0261574044155</v>
       </c>
       <c r="N46" t="n">
-        <v>113.3787327797469</v>
+        <v>515.4321901957876</v>
       </c>
       <c r="O46" t="n">
-        <v>482.9068907574113</v>
+        <v>482.9068907574114</v>
       </c>
       <c r="P46" t="n">
-        <v>399.5426392102386</v>
+        <v>83.62728105538245</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.77493818694697</v>
+        <v>201.6774607908854</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
